--- a/resource_api/siparisler/dosyalar/Uretim_list.xlsx
+++ b/resource_api/siparisler/dosyalar/Uretim_list.xlsx
@@ -632,47 +632,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-06-2023</t>
+          <t>23-08-2023</t>
         </is>
       </c>
       <c r="B2" s="14" t="inlineStr">
         <is>
-          <t>12-06-2023</t>
+          <t>23-08-2023</t>
         </is>
       </c>
       <c r="C2" s="17" t="inlineStr">
         <is>
-          <t>Pukka Stone - Turkey</t>
+          <t>Stephen Adjokatcher - Ghana</t>
         </is>
       </c>
       <c r="D2" s="14" t="inlineStr">
         <is>
-          <t>Pukka Stone - Turkey</t>
+          <t>Stephen Adjokatcher - Ghana</t>
         </is>
       </c>
       <c r="E2" s="17" t="inlineStr">
         <is>
-          <t>23PUK03</t>
+          <t>23STAD01</t>
         </is>
       </c>
       <c r="F2" s="14" t="inlineStr">
         <is>
-          <t>23PUK03</t>
+          <t>23STAD01</t>
         </is>
       </c>
       <c r="G2" s="17" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Pablo Cross Cut</t>
         </is>
       </c>
       <c r="H2" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Gold - Dolgusuz&amp;Honlu&amp;Kenarı Kırık - 15,25x30,5x3,0 ( 3 Palet 340 lı olacak, Toplam 1020 Adet)</t>
+          <t>Travertine Tiles - Pablo Cross Cut - Dolgulu&amp;Fırçalı&amp;Düz Kenar - 40,6X61,0X1,2 (1616 Adet)</t>
         </is>
       </c>
       <c r="I2" s="17" t="inlineStr">
         <is>
-          <t>15,25x30,5x3,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="J2" s="17" t="inlineStr">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="K2" s="9" t="n">
-        <v>47.44</v>
+        <v>400.22</v>
       </c>
       <c r="L2" s="9" t="n">
         <v>0</v>
@@ -692,56 +692,56 @@
         </is>
       </c>
       <c r="N2" s="7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O2" s="7" t="n">
-        <v>0</v>
+        <v>12006.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-06-2023</t>
+          <t>17-08-2023</t>
         </is>
       </c>
       <c r="B3" s="14" t="inlineStr">
         <is>
-          <t>12-06-2023</t>
+          <t>17-08-2023</t>
         </is>
       </c>
       <c r="C3" s="17" t="inlineStr">
         <is>
-          <t>Veysi &amp; Assham - Libya</t>
+          <t>Arron - AU</t>
         </is>
       </c>
       <c r="D3" s="14" t="inlineStr">
         <is>
-          <t>Veysi &amp; Assham - Libya</t>
+          <t>Arron - AU</t>
         </is>
       </c>
       <c r="E3" s="17" t="inlineStr">
         <is>
-          <t>23AAC04</t>
+          <t>23ADA03</t>
         </is>
       </c>
       <c r="F3" s="14" t="inlineStr">
         <is>
-          <t>23AAC04</t>
+          <t>23ADA03</t>
         </is>
       </c>
       <c r="G3" s="17" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="H3" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Silver Rustic - Dolgulu&amp;Fırçalı&amp;Kenarı Kırık - ANTxPATx1,2</t>
+          <t>1- Picasso Ivory - Ham - 30 x 60 x 3 cm - 110 adet - 19,8 sqm</t>
         </is>
       </c>
       <c r="I3" s="17" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>30,0x60,0x3,0</t>
         </is>
       </c>
       <c r="J3" s="17" t="inlineStr">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="K3" s="9" t="n">
-        <v>927.84</v>
+        <v>19.8</v>
       </c>
       <c r="L3" s="9" t="n">
-        <v>927.84</v>
+        <v>0</v>
       </c>
       <c r="M3" s="17" t="inlineStr">
         <is>
@@ -761,56 +761,56 @@
         </is>
       </c>
       <c r="N3" s="7" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="O3" s="7" t="n">
-        <v>15773.28</v>
+        <v>534.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06-06-2023</t>
+          <t>16-08-2023</t>
         </is>
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>06-06-2023</t>
+          <t>16-08-2023</t>
         </is>
       </c>
       <c r="C4" s="17" t="inlineStr">
         <is>
-          <t>VEIK - UAE</t>
+          <t>Dilamar Mermer</t>
         </is>
       </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
-          <t>VEIK - UAE</t>
+          <t>Dilamar Mermer</t>
         </is>
       </c>
       <c r="E4" s="17" t="inlineStr">
         <is>
-          <t>23VEIK92</t>
+          <t>23DLM20</t>
         </is>
       </c>
       <c r="F4" s="14" t="inlineStr">
         <is>
-          <t>23VEIK92</t>
+          <t>23DLM20</t>
         </is>
       </c>
       <c r="G4" s="17" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="H4" s="17" t="inlineStr">
         <is>
-          <t>Mina Rustic ST-450 - Dolgusuz Fırçalı Düz Kenar - 20 x Set x 1.2 cm (22 Kasa)</t>
+          <t>Travertine Tiles - Silver Grey - Dolgulu&amp;Honlu- 30,5X30,5X1,2 (1613 Adet)</t>
         </is>
       </c>
       <c r="I4" s="17" t="inlineStr">
         <is>
-          <t>20,3xSETx1,2</t>
+          <t>30,5x30,5x1,2</t>
         </is>
       </c>
       <c r="J4" s="17" t="inlineStr">
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="K4" s="9" t="n">
-        <v>950.16</v>
+        <v>150.05</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>158.36</v>
+        <v>0</v>
       </c>
       <c r="M4" s="17" t="inlineStr">
         <is>
@@ -830,56 +830,56 @@
         </is>
       </c>
       <c r="N4" s="7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>14252.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31-05-2023</t>
+          <t>16-08-2023</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">
         <is>
-          <t>31-05-2023</t>
+          <t>16-08-2023</t>
         </is>
       </c>
       <c r="C5" s="17" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>Erkan - Turkey</t>
         </is>
       </c>
       <c r="D5" s="14" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>Erkan - Turkey</t>
         </is>
       </c>
       <c r="E5" s="17" t="inlineStr">
         <is>
-          <t>23MAYA14</t>
+          <t>23ERK01</t>
         </is>
       </c>
       <c r="F5" s="14" t="inlineStr">
         <is>
-          <t>23MAYA14</t>
+          <t>23ERK01</t>
         </is>
       </c>
       <c r="G5" s="17" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H5" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Scabos - Dolgulu&amp;Fırçalı&amp;Kenarı Kırık- ANTXPATX1,2</t>
+          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;Honlu- 20,3X61,0X1,2</t>
         </is>
       </c>
       <c r="I5" s="17" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="J5" s="17" t="inlineStr">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="K5" s="9" t="n">
-        <v>49.07</v>
+        <v>426.71</v>
       </c>
       <c r="L5" s="9" t="n">
-        <v>0</v>
+        <v>451.76</v>
       </c>
       <c r="M5" s="17" t="inlineStr">
         <is>
@@ -899,41 +899,41 @@
         </is>
       </c>
       <c r="N5" s="7" t="n">
-        <v>19.47585</v>
+        <v>13</v>
       </c>
       <c r="O5" s="7" t="n">
-        <v>955.6799999999999</v>
+        <v>5547.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10-05-2023</t>
+          <t>16-08-2023</t>
         </is>
       </c>
       <c r="B6" s="14" t="inlineStr">
         <is>
-          <t>10-05-2023</t>
+          <t>16-08-2023</t>
         </is>
       </c>
       <c r="C6" s="17" t="inlineStr">
         <is>
-          <t>Berchie A. - Ghana</t>
+          <t>Ingo - Ghana</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>Berchie A. - Ghana</t>
+          <t>Ingo - Ghana</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>23BAC01</t>
+          <t>18ING01-2</t>
         </is>
       </c>
       <c r="F6" s="14" t="inlineStr">
         <is>
-          <t>23BAC01</t>
+          <t>18ING01-2</t>
         </is>
       </c>
       <c r="G6" s="17" t="inlineStr">
@@ -943,12 +943,12 @@
       </c>
       <c r="H6" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina Süpürgelik - Dolgulu Honlu (yarı cila) -  1 uzun kenar pahlı - 8 cm x (30,5-61) cm x 1,2 cm</t>
+          <t xml:space="preserve">Classic Traverten Dolgulu Honlu Diz Kenar </t>
         </is>
       </c>
       <c r="I6" s="17" t="inlineStr">
         <is>
-          <t>8,0xFreex1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="J6" s="17" t="inlineStr">
@@ -957,55 +957,55 @@
         </is>
       </c>
       <c r="K6" s="9" t="n">
-        <v>2000</v>
+        <v>1307.79</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>2000</v>
+        <v>277.41</v>
       </c>
       <c r="M6" s="17" t="inlineStr">
         <is>
-          <t>Mt</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N6" s="7" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="O6" s="7" t="n">
-        <v>8000</v>
+        <v>28771.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10-05-2023</t>
+          <t>16-08-2023</t>
         </is>
       </c>
       <c r="B7" s="18" t="n"/>
       <c r="C7" s="17" t="inlineStr">
         <is>
-          <t>Berchie A. - Ghana</t>
+          <t>Ingo - Ghana</t>
         </is>
       </c>
       <c r="D7" s="18" t="n"/>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>23BAC01</t>
+          <t>18ING01-2</t>
         </is>
       </c>
       <c r="F7" s="18" t="n"/>
       <c r="G7" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="H7" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina - Dolgulu Honlu (yarı cila) - 30,5 x 61 x 1,2 cm -  1075 adet</t>
+          <t>Picasso Dolgulu Honlu Düz Kenar</t>
         </is>
       </c>
       <c r="I7" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="J7" s="17" t="inlineStr">
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="K7" s="9" t="n">
-        <v>200</v>
+        <v>375.67</v>
       </c>
       <c r="L7" s="9" t="n">
-        <v>200</v>
+        <v>420.35</v>
       </c>
       <c r="M7" s="17" t="inlineStr">
         <is>
@@ -1028,38 +1028,38 @@
         <v>20</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>4000</v>
+        <v>7513.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>06-05-2023</t>
+          <t>07-08-2023</t>
         </is>
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>06-05-2023</t>
+          <t>07-08-2023</t>
         </is>
       </c>
       <c r="C8" s="17" t="inlineStr">
         <is>
-          <t>Hotel Gab - Romania</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>Hotel Gab - Romania</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>23HOGA10</t>
+          <t>23FLOS49</t>
         </is>
       </c>
       <c r="F8" s="14" t="inlineStr">
         <is>
-          <t>23HOGA10</t>
+          <t>23FLOS49</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
@@ -1069,13 +1069,12 @@
       </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">4a- Traverten - Classic Vein Cut - Dolgulu Cilalı - 5 x 30,5 x 2 cm - 132 adet - 2,01 sqm
-</t>
+          <t>2-  Classic Vein Cut - Dolgusuz &amp; Fırçalı - 40,6 x 61 x 1,2 cm - 3 Kasa - 126,31 sqm - 510 adet</t>
         </is>
       </c>
       <c r="I8" s="17" t="inlineStr">
         <is>
-          <t>5,0x30,5x2,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="J8" s="17" t="inlineStr">
@@ -1084,7 +1083,7 @@
         </is>
       </c>
       <c r="K8" s="9" t="n">
-        <v>2.01</v>
+        <v>126.31</v>
       </c>
       <c r="L8" s="9" t="n">
         <v>0</v>
@@ -1095,44 +1094,44 @@
         </is>
       </c>
       <c r="N8" s="7" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>70.34999999999999</v>
+        <v>3662.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>06-05-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="18" t="n"/>
+          <t>07-08-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="19" t="n"/>
       <c r="C9" s="17" t="inlineStr">
         <is>
-          <t>Hotel Gab - Romania</t>
-        </is>
-      </c>
-      <c r="D9" s="18" t="n"/>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="D9" s="19" t="n"/>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>23HOGA10</t>
-        </is>
-      </c>
-      <c r="F9" s="18" t="n"/>
+          <t>23FLOS49</t>
+        </is>
+      </c>
+      <c r="F9" s="19" t="n"/>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="H9" s="17" t="inlineStr">
         <is>
-          <t>4b- Traverten - Classic Vein Cut - Dolgulu Cilalı - 15 x 30,5 x 2 cm - 132 adet - 6,039 sqm</t>
+          <t>4- Golden Ink - Dolgulu Honlu - 40,6 x 61 x 1,2 cm - 1 Kasa - 170 Adet - 42,1 sqm</t>
         </is>
       </c>
       <c r="I9" s="17" t="inlineStr">
         <is>
-          <t>15,0x30,5x2,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="J9" s="17" t="inlineStr">
@@ -1141,10 +1140,10 @@
         </is>
       </c>
       <c r="K9" s="9" t="n">
-        <v>6.04</v>
+        <v>42.1</v>
       </c>
       <c r="L9" s="9" t="n">
-        <v>0</v>
+        <v>42.1</v>
       </c>
       <c r="M9" s="17" t="inlineStr">
         <is>
@@ -1152,56 +1151,44 @@
         </is>
       </c>
       <c r="N9" s="7" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>241.6</v>
+        <v>589.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>24-04-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="14" t="inlineStr">
-        <is>
-          <t>24-04-2023</t>
-        </is>
-      </c>
+          <t>07-08-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="19" t="n"/>
       <c r="C10" s="17" t="inlineStr">
         <is>
-          <t>Patrick - Germany</t>
-        </is>
-      </c>
-      <c r="D10" s="14" t="inlineStr">
-        <is>
-          <t>Patrick - Germany</t>
-        </is>
-      </c>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="D10" s="19" t="n"/>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>23PM03-4</t>
-        </is>
-      </c>
-      <c r="F10" s="14" t="inlineStr">
-        <is>
-          <t>23PM03-4</t>
-        </is>
-      </c>
+          <t>23FLOS49</t>
+        </is>
+      </c>
+      <c r="F10" s="19" t="n"/>
       <c r="G10" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="H10" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Silver Grey Pervaz - Dolgusuz Honlu Eskitme - 7.5x61x1.2 cm - 3 Kenarı Eskitme </t>
+          <t>6- Mina Rustic - Dolgulu Fırçalı - 30,5 x 61 x 1,2 cm  - 3 Kasa - 630 adet - 117,21 sqm</t>
         </is>
       </c>
       <c r="I10" s="17" t="inlineStr">
         <is>
-          <t>7,5x61x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J10" s="17" t="inlineStr">
@@ -1210,42 +1197,42 @@
         </is>
       </c>
       <c r="K10" s="9" t="n">
-        <v>512.4</v>
+        <v>117.21</v>
       </c>
       <c r="L10" s="9" t="n">
-        <v>512.4</v>
+        <v>0</v>
       </c>
       <c r="M10" s="17" t="inlineStr">
         <is>
-          <t>Mt</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N10" s="7" t="n">
-        <v>5.5</v>
+        <v>14</v>
       </c>
       <c r="O10" s="7" t="n">
-        <v>2818.2</v>
+        <v>1640.94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24-04-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="19" t="n"/>
+          <t>07-08-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="18" t="n"/>
       <c r="C11" s="17" t="inlineStr">
         <is>
-          <t>Patrick - Germany</t>
-        </is>
-      </c>
-      <c r="D11" s="19" t="n"/>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="D11" s="18" t="n"/>
       <c r="E11" s="17" t="inlineStr">
         <is>
-          <t>23PM03-4</t>
-        </is>
-      </c>
-      <c r="F11" s="19" t="n"/>
+          <t>23FLOS49</t>
+        </is>
+      </c>
+      <c r="F11" s="18" t="n"/>
       <c r="G11" s="17" t="inlineStr">
         <is>
           <t>Silver Grey</t>
@@ -1253,24 +1240,24 @@
       </c>
       <c r="H11" s="17" t="inlineStr">
         <is>
-          <t>Silver Mosaik - Patlatma - 5x10 Mesh Üzerinde</t>
+          <t>7- Silver - Dolgulu Honlu - 40,6 x 61 x 1,2 cm - 1 Kasa - 170 adet - 42,1 sqm</t>
         </is>
       </c>
       <c r="I11" s="17" t="inlineStr">
         <is>
-          <t>5,0x10,0x1,7</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="J11" s="17" t="inlineStr">
         <is>
-          <t>Mek-Moz</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K11" s="9" t="n">
-        <v>194.4</v>
+        <v>42.1</v>
       </c>
       <c r="L11" s="9" t="n">
-        <v>194.4</v>
+        <v>0</v>
       </c>
       <c r="M11" s="17" t="inlineStr">
         <is>
@@ -1278,113 +1265,113 @@
         </is>
       </c>
       <c r="N11" s="7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O11" s="7" t="n">
-        <v>5054.4</v>
+        <v>1220.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24-04-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="18" t="n"/>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
       <c r="C12" s="17" t="inlineStr">
         <is>
-          <t>Patrick - Germany</t>
-        </is>
-      </c>
-      <c r="D12" s="18" t="n"/>
+          <t>David Vickers - Turkey</t>
+        </is>
+      </c>
+      <c r="D12" s="14" t="inlineStr">
+        <is>
+          <t>David Vickers - Turkey</t>
+        </is>
+      </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>23PM03-4</t>
-        </is>
-      </c>
-      <c r="F12" s="18" t="n"/>
+          <t>23DAVE01</t>
+        </is>
+      </c>
+      <c r="F12" s="14" t="inlineStr">
+        <is>
+          <t>23DAVE01</t>
+        </is>
+      </c>
       <c r="G12" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H12" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey Mosaik Köşe- Patlatma - 5x10x1.7 cm - Mesh üzerinde, kenarları da patlatma</t>
+          <t xml:space="preserve">Classic Mina traverten drenaj-Dolgulu fırçalı-19,5X60,0X2,3CM - 38 adet - 4,45m2 - </t>
         </is>
       </c>
       <c r="I12" s="17" t="inlineStr">
         <is>
-          <t>5,0x10,0x1,7</t>
+          <t>19,5x60,0x2,3</t>
         </is>
       </c>
       <c r="J12" s="17" t="inlineStr">
         <is>
-          <t>Mek-Moz</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K12" s="9" t="n">
-        <v>55.8</v>
+        <v>38</v>
       </c>
       <c r="L12" s="9" t="n">
-        <v>55.8</v>
+        <v>0</v>
       </c>
       <c r="M12" s="17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N12" s="7" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O12" s="7" t="n">
-        <v>1729.8</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24-04-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="14" t="inlineStr">
-        <is>
-          <t>24-04-2023</t>
-        </is>
-      </c>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="18" t="n"/>
       <c r="C13" s="17" t="inlineStr">
         <is>
-          <t>Patrick - Germany</t>
-        </is>
-      </c>
-      <c r="D13" s="14" t="inlineStr">
-        <is>
-          <t>Patrick - Germany</t>
-        </is>
-      </c>
+          <t>David Vickers - Turkey</t>
+        </is>
+      </c>
+      <c r="D13" s="18" t="n"/>
       <c r="E13" s="17" t="inlineStr">
         <is>
-          <t>23PM03-5</t>
-        </is>
-      </c>
-      <c r="F13" s="14" t="inlineStr">
-        <is>
-          <t>23PM03-5</t>
-        </is>
-      </c>
+          <t>23DAVE01</t>
+        </is>
+      </c>
+      <c r="F13" s="18" t="n"/>
       <c r="G13" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H13" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Silver Grey Pervaz - Dolgusuz Honlu Eskitme - 7.5x61x1.2 cm - 3 Kenarı Eskitme </t>
+          <t>Classic Mina traverten drenaj-19,5X40,0X2,3cm-dolgulu fırçalı köşe - 4 adet - 0,312m2</t>
         </is>
       </c>
       <c r="I13" s="17" t="inlineStr">
         <is>
-          <t>7,5x61x1,2</t>
+          <t>19,5x40,0x2,3</t>
         </is>
       </c>
       <c r="J13" s="17" t="inlineStr">
@@ -1393,67 +1380,79 @@
         </is>
       </c>
       <c r="K13" s="9" t="n">
-        <v>326.3</v>
+        <v>4</v>
       </c>
       <c r="L13" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M13" s="17" t="inlineStr">
         <is>
-          <t>Mt</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N13" s="7" t="n">
-        <v>5.5</v>
+        <v>120</v>
       </c>
       <c r="O13" s="7" t="n">
-        <v>1794.65</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>24-04-2023</t>
-        </is>
-      </c>
-      <c r="B14" s="19" t="n"/>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="14" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
       <c r="C14" s="17" t="inlineStr">
         <is>
-          <t>Patrick - Germany</t>
-        </is>
-      </c>
-      <c r="D14" s="19" t="n"/>
+          <t>Antmer - Turkey</t>
+        </is>
+      </c>
+      <c r="D14" s="14" t="inlineStr">
+        <is>
+          <t>Antmer - Turkey</t>
+        </is>
+      </c>
       <c r="E14" s="17" t="inlineStr">
         <is>
-          <t>23PM03-5</t>
-        </is>
-      </c>
-      <c r="F14" s="19" t="n"/>
+          <t>23ANT01-2</t>
+        </is>
+      </c>
+      <c r="F14" s="14" t="inlineStr">
+        <is>
+          <t>23ANT01-2</t>
+        </is>
+      </c>
       <c r="G14" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H14" s="17" t="inlineStr">
         <is>
-          <t>Silver Mosaik - Patlatma - 5x10 Mesh Üzerinde</t>
+          <t>Travertine Tiles - Valencia - Filled&amp;Honed - 45,7X45,7X1,2</t>
         </is>
       </c>
       <c r="I14" s="17" t="inlineStr">
         <is>
-          <t>5,0x10,0x1,7</t>
+          <t>45,7x45,7x1,2</t>
         </is>
       </c>
       <c r="J14" s="17" t="inlineStr">
         <is>
-          <t>Mek-Moz</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K14" s="9" t="n">
-        <v>577.36</v>
+        <v>100.26</v>
       </c>
       <c r="L14" s="9" t="n">
-        <v>339.3</v>
+        <v>100.26</v>
       </c>
       <c r="M14" s="17" t="inlineStr">
         <is>
@@ -1461,56 +1460,56 @@
         </is>
       </c>
       <c r="N14" s="7" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="n">
-        <v>15011.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>24-04-2023</t>
+          <t>24-07-2023</t>
         </is>
       </c>
       <c r="B15" s="18" t="n"/>
       <c r="C15" s="17" t="inlineStr">
         <is>
-          <t>Patrick - Germany</t>
+          <t>Antmer - Turkey</t>
         </is>
       </c>
       <c r="D15" s="18" t="n"/>
       <c r="E15" s="17" t="inlineStr">
         <is>
-          <t>23PM03-5</t>
+          <t>23ANT01-2</t>
         </is>
       </c>
       <c r="F15" s="18" t="n"/>
       <c r="G15" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H15" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey Mosaik Köşe- Patlatma - 5x10x1.7 cm - Mesh üzerinde, kenarları da patlatma</t>
+          <t>Travertine Tiles - Valencia - Dolgulu&amp;Honlu - 30,5X61,0X1,2</t>
         </is>
       </c>
       <c r="I15" s="17" t="inlineStr">
         <is>
-          <t>5,0x10,0x1,7</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J15" s="17" t="inlineStr">
         <is>
-          <t>Mek-Moz</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K15" s="9" t="n">
-        <v>54.45</v>
+        <v>29.77</v>
       </c>
       <c r="L15" s="9" t="n">
-        <v>55.8</v>
+        <v>29.77</v>
       </c>
       <c r="M15" s="17" t="inlineStr">
         <is>
@@ -1518,41 +1517,41 @@
         </is>
       </c>
       <c r="N15" s="7" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="n">
-        <v>1687.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12-04-2023</t>
+          <t>21-07-2023</t>
         </is>
       </c>
       <c r="B16" s="14" t="inlineStr">
         <is>
-          <t>12-04-2023</t>
+          <t>21-07-2023</t>
         </is>
       </c>
       <c r="C16" s="17" t="inlineStr">
         <is>
-          <t>Cem-Mer (PEKER)</t>
+          <t>Andrea Bigeni - Malta</t>
         </is>
       </c>
       <c r="D16" s="14" t="inlineStr">
         <is>
-          <t>Cem-Mer (PEKER)</t>
+          <t>Andrea Bigeni - Malta</t>
         </is>
       </c>
       <c r="E16" s="17" t="inlineStr">
         <is>
-          <t>23PK3000-3</t>
+          <t>23PPP17</t>
         </is>
       </c>
       <c r="F16" s="14" t="inlineStr">
         <is>
-          <t>23PK3000-3</t>
+          <t>23PPP17</t>
         </is>
       </c>
       <c r="G16" s="17" t="inlineStr">
@@ -1562,12 +1561,15 @@
       </c>
       <c r="H16" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Travertine Tiles - Classic Vein Cut - Dolgulu&amp;Honlu - 30,5x61,0x1,2 (160 adetli) </t>
+          <t xml:space="preserve">10- (C1) - Classic Vein Cut - Dolgulu Honlu 1 Uzun Kenarı ve 2 Kısa Kenarının ilk 5 cm i Alttan Ve Üstten 2 mm Pahlı Alınlar Dolgulu Honlu - 26,5 x 58,5 x 4 cm - 1 adet - 0,16 sqm
+11- (C2) - Classic Vein Cut – Üst ve Alt Yüzü Dolgulu Honlu, 1 Uzun Kenarı Alttan ve Üstten 2 mm Pahlı, Alın Dolgulu Honlu - 23,5 x 59 x 4 cm – 1 adet – 0,14 sqm
+12- (C3) - Classic Vein Cut – Üst ve Alt Yüzü Dolgulu Honlu, 1 Uzun Kenarı Alttan ve Üstten 2 mm Pahlı, Alın Dolgulu Honlu - 24 x 59,5 x 4 cm – 1 adet – 0,14 sqm
+</t>
         </is>
       </c>
       <c r="I16" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>VariousxVariousx4,0</t>
         </is>
       </c>
       <c r="J16" s="17" t="inlineStr">
@@ -1576,67 +1578,55 @@
         </is>
       </c>
       <c r="K16" s="9" t="n">
-        <v>476.32</v>
+        <v>3</v>
       </c>
       <c r="L16" s="9" t="n">
-        <v>119.08</v>
+        <v>0</v>
       </c>
       <c r="M16" s="17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N16" s="7" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="O16" s="7" t="n">
-        <v>10717.2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="14" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="19" t="n"/>
       <c r="C17" s="17" t="inlineStr">
         <is>
-          <t>Seth, TDWL - Ghana</t>
-        </is>
-      </c>
-      <c r="D17" s="14" t="inlineStr">
-        <is>
-          <t>Seth, TDWL - Ghana</t>
-        </is>
-      </c>
+          <t>Andrea Bigeni - Malta</t>
+        </is>
+      </c>
+      <c r="D17" s="19" t="n"/>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>23TDWL01-3</t>
-        </is>
-      </c>
-      <c r="F17" s="14" t="inlineStr">
-        <is>
-          <t>23TDWL01-3</t>
-        </is>
-      </c>
+          <t>23PPP17</t>
+        </is>
+      </c>
+      <c r="F17" s="19" t="n"/>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="H17" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina - Dolgulu Yarı Cilalı - 30,5x61x1,2 cm</t>
+          <t>20- (D5) Classic Vein Cut - Dolgulu Honlu - 30,5 x 30,5 x 1,2 cm - 9 adet - 0,84 sqm</t>
         </is>
       </c>
       <c r="I17" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,5x30,5x1,2</t>
         </is>
       </c>
       <c r="J17" s="17" t="inlineStr">
@@ -1645,55 +1635,55 @@
         </is>
       </c>
       <c r="K17" s="9" t="n">
-        <v>266.04</v>
+        <v>9</v>
       </c>
       <c r="L17" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="O17" s="7" t="n">
-        <v>6917.04</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="B18" s="18" t="n"/>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="B18" s="19" t="n"/>
       <c r="C18" s="17" t="inlineStr">
         <is>
-          <t>Seth, TDWL - Ghana</t>
-        </is>
-      </c>
-      <c r="D18" s="18" t="n"/>
+          <t>Andrea Bigeni - Malta</t>
+        </is>
+      </c>
+      <c r="D18" s="19" t="n"/>
       <c r="E18" s="17" t="inlineStr">
         <is>
-          <t>23TDWL01-3</t>
-        </is>
-      </c>
-      <c r="F18" s="18" t="n"/>
+          <t>23PPP17</t>
+        </is>
+      </c>
+      <c r="F18" s="19" t="n"/>
       <c r="G18" s="17" t="inlineStr">
         <is>
-          <t>Sample</t>
+          <t>Red Vein Cut</t>
         </is>
       </c>
       <c r="H18" s="17" t="inlineStr">
         <is>
-          <t>Other - Sample - Ozel - VARXVARXVAR (Numune Kasasıdır.)</t>
+          <t xml:space="preserve">30- (E9) Travertine Tiles - Red Vein Cut – Dolgulu Honlu 1 Uzun Kenarı Alttan ve Üstten 2 mm Pahlı Alın Dolgulu Honlu, 2 Kısa Kenarı Önden 45 Derece Tam Pahlı- 27,5 x 105 x 3 cm	- 1 Adet – 0,29 sqm			</t>
         </is>
       </c>
       <c r="I18" s="17" t="inlineStr">
         <is>
-          <t>VARxVARxVAR</t>
+          <t>27,5x105,0x3,0</t>
         </is>
       </c>
       <c r="J18" s="17" t="inlineStr">
@@ -1702,67 +1692,55 @@
         </is>
       </c>
       <c r="K18" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N18" s="7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="O18" s="7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01-03-2023</t>
-        </is>
-      </c>
-      <c r="B19" s="14" t="inlineStr">
-        <is>
-          <t>01-03-2023</t>
-        </is>
-      </c>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="B19" s="19" t="n"/>
       <c r="C19" s="17" t="inlineStr">
         <is>
-          <t>Sheikh - UAE</t>
-        </is>
-      </c>
-      <c r="D19" s="14" t="inlineStr">
-        <is>
-          <t>Sheikh - UAE</t>
-        </is>
-      </c>
+          <t>Andrea Bigeni - Malta</t>
+        </is>
+      </c>
+      <c r="D19" s="19" t="n"/>
       <c r="E19" s="17" t="inlineStr">
         <is>
-          <t>23SHK06-2</t>
-        </is>
-      </c>
-      <c r="F19" s="14" t="inlineStr">
-        <is>
-          <t>23SHK06-2</t>
-        </is>
-      </c>
+          <t>23PPP17</t>
+        </is>
+      </c>
+      <c r="F19" s="19" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Red Vein Cut</t>
         </is>
       </c>
       <c r="H19" s="17" t="inlineStr">
         <is>
-          <t>Traverten Korniş - Classic Vein Cut - Mastik Dolgu &amp; Cilalı - As Çizime Göre - 7 x 110 x 5 cm - 30 Adet</t>
+          <t>31- (E10) Red Vein Cut – Dolgulu Honlu 1 Uzun Kenarı Alttan ve Üstten 2 mm Pahlı Alın Dolgulu Honlu arka yüzü 5 cm Dolgulu Honlu, 2 Kısa Kenarı Önden 45 Derece Tam Pahlı - 27,5 x 124 x 3 cm – 2 adet – 0,68 sqm</t>
         </is>
       </c>
       <c r="I19" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">7,0x110,0x5,0 </t>
+          <t>27,5x124,0x3,0</t>
         </is>
       </c>
       <c r="J19" s="17" t="inlineStr">
@@ -1771,42 +1749,42 @@
         </is>
       </c>
       <c r="K19" s="9" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="L19" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M19" s="17" t="inlineStr">
         <is>
-          <t>Mt</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N19" s="7" t="n">
-        <v>40</v>
+        <v>62.5</v>
       </c>
       <c r="O19" s="7" t="n">
-        <v>1320</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01-03-2023</t>
-        </is>
-      </c>
-      <c r="B20" s="19" t="n"/>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="B20" s="18" t="n"/>
       <c r="C20" s="17" t="inlineStr">
         <is>
-          <t>Sheikh - UAE</t>
-        </is>
-      </c>
-      <c r="D20" s="19" t="n"/>
+          <t>Andrea Bigeni - Malta</t>
+        </is>
+      </c>
+      <c r="D20" s="18" t="n"/>
       <c r="E20" s="17" t="inlineStr">
         <is>
-          <t>23SHK06-2</t>
-        </is>
-      </c>
-      <c r="F20" s="19" t="n"/>
+          <t>23PPP17</t>
+        </is>
+      </c>
+      <c r="F20" s="18" t="n"/>
       <c r="G20" s="17" t="inlineStr">
         <is>
           <t>Classic Vein Cut</t>
@@ -1814,12 +1792,12 @@
       </c>
       <c r="H20" s="17" t="inlineStr">
         <is>
-          <t>Traverten Korniş - Classic Vein Cut - Mastik Dolgu &amp; Cilalı - As Çizime Göre - 7 x 180 x 5 cm - 10 Adet</t>
+          <t>38- (G1) Classic Vein Cut - Dolgulu Holnu Özel Açılı Üst Yüzey Kesimi - 10 x 26,9 x 7,7 cm - 2 adet - 0,05 sqm</t>
         </is>
       </c>
       <c r="I20" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">7,0x180,0x5,0 </t>
+          <t>10,0x26,9x7,7</t>
         </is>
       </c>
       <c r="J20" s="17" t="inlineStr">
@@ -1828,99 +1806,123 @@
         </is>
       </c>
       <c r="K20" s="9" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L20" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="17" t="inlineStr">
         <is>
-          <t>Mt</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N20" s="7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O20" s="7" t="n">
-        <v>720</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01-03-2023</t>
-        </is>
-      </c>
-      <c r="B21" s="19" t="n"/>
+          <t>24-04-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="14" t="inlineStr">
+        <is>
+          <t>24-04-2023</t>
+        </is>
+      </c>
       <c r="C21" s="17" t="inlineStr">
         <is>
-          <t>Sheikh - UAE</t>
-        </is>
-      </c>
-      <c r="D21" s="19" t="n"/>
+          <t>Patrick - Germany</t>
+        </is>
+      </c>
+      <c r="D21" s="14" t="inlineStr">
+        <is>
+          <t>Patrick - Germany</t>
+        </is>
+      </c>
       <c r="E21" s="17" t="inlineStr">
         <is>
-          <t>23SHK06-2</t>
-        </is>
-      </c>
-      <c r="F21" s="19" t="n"/>
+          <t>23PM03-6</t>
+        </is>
+      </c>
+      <c r="F21" s="14" t="inlineStr">
+        <is>
+          <t>23PM03-6</t>
+        </is>
+      </c>
       <c r="G21" s="17" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="H21" s="17" t="inlineStr">
         <is>
-          <t>Traverten Korniş - Classic Vein Cut - Mastik Dolgu &amp; Cilalı - As Çizime Göre - 8,6 x 100 x 5 cm - 5 Adet</t>
+          <t>Silver Mosaik - Patlatma - 5x10 Mesh Üzerinde</t>
         </is>
       </c>
       <c r="I21" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">8,6x100,0x5,0 </t>
+          <t>5,0x10,0x1,7</t>
         </is>
       </c>
       <c r="J21" s="17" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Mek-Moz</t>
         </is>
       </c>
       <c r="K21" s="9" t="n">
-        <v>5</v>
+        <v>48.6</v>
       </c>
       <c r="L21" s="9" t="n">
-        <v>0</v>
+        <v>48.6</v>
       </c>
       <c r="M21" s="17" t="inlineStr">
         <is>
-          <t>Mt</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N21" s="7" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="O21" s="7" t="n">
-        <v>250</v>
+        <v>1263.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01-03-2023</t>
-        </is>
-      </c>
-      <c r="B22" s="18" t="n"/>
+          <t>12-04-2023</t>
+        </is>
+      </c>
+      <c r="B22" s="14" t="inlineStr">
+        <is>
+          <t>12-04-2023</t>
+        </is>
+      </c>
       <c r="C22" s="17" t="inlineStr">
         <is>
-          <t>Sheikh - UAE</t>
-        </is>
-      </c>
-      <c r="D22" s="18" t="n"/>
+          <t>Cem-Mer (PEKER)</t>
+        </is>
+      </c>
+      <c r="D22" s="14" t="inlineStr">
+        <is>
+          <t>Cem-Mer (PEKER)</t>
+        </is>
+      </c>
       <c r="E22" s="17" t="inlineStr">
         <is>
-          <t>23SHK06-2</t>
-        </is>
-      </c>
-      <c r="F22" s="18" t="n"/>
+          <t>23PK3000-6</t>
+        </is>
+      </c>
+      <c r="F22" s="14" t="inlineStr">
+        <is>
+          <t>23PK3000-6</t>
+        </is>
+      </c>
       <c r="G22" s="17" t="inlineStr">
         <is>
           <t>Classic Vein Cut</t>
@@ -1928,12 +1930,12 @@
       </c>
       <c r="H22" s="17" t="inlineStr">
         <is>
-          <t>Traverten Korniş - Classic Vein Cut - Mastik Dolgu &amp; Cilalı - As Çizime Göre - 7 x 100 x 5 cm - 52 Adet</t>
+          <t xml:space="preserve">Travertine Tiles - Classic Vein Cut - Dolgulu&amp;Honlu - 30,5x61,0x1,2 (160 adetli) </t>
         </is>
       </c>
       <c r="I22" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">7,0x100,0x5,0 </t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J22" s="17" t="inlineStr">
@@ -1942,52 +1944,52 @@
         </is>
       </c>
       <c r="K22" s="9" t="n">
-        <v>52</v>
+        <v>29.77</v>
       </c>
       <c r="L22" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="17" t="inlineStr">
         <is>
-          <t>Mt</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N22" s="7" t="n">
-        <v>40</v>
+        <v>22.5</v>
       </c>
       <c r="O22" s="7" t="n">
-        <v>2080</v>
+        <v>669.8200000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01-03-2023</t>
+          <t>08-12-2022</t>
         </is>
       </c>
       <c r="B23" s="14" t="inlineStr">
         <is>
-          <t>01-03-2023</t>
+          <t>08-12-2022</t>
         </is>
       </c>
       <c r="C23" s="17" t="inlineStr">
         <is>
-          <t>Andrea Bigeni - Malta</t>
+          <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
       <c r="D23" s="14" t="inlineStr">
         <is>
-          <t>Andrea Bigeni - Malta</t>
+          <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
       <c r="E23" s="17" t="inlineStr">
         <is>
-          <t>23PPP15</t>
+          <t>22BCA02-5</t>
         </is>
       </c>
       <c r="F23" s="14" t="inlineStr">
         <is>
-          <t>23PPP15</t>
+          <t>22BCA02-5</t>
         </is>
       </c>
       <c r="G23" s="17" t="inlineStr">
@@ -1997,12 +1999,12 @@
       </c>
       <c r="H23" s="17" t="inlineStr">
         <is>
-          <t>128- Traverten - Classic Vein Cut - Dolgulu Honlu - 30,5 x 61 x 1,2 cm - 798 adet - 148,47 sqm</t>
+          <t>Travertine Tiles - Classic Vein Cut - dolgulu fırçalı - 60,0x60,0x2,0 - 2365,2 m2 - 6570 adet - 132 kasa</t>
         </is>
       </c>
       <c r="I23" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>60,0x60,0x2,0</t>
         </is>
       </c>
       <c r="J23" s="17" t="inlineStr">
@@ -2011,10 +2013,10 @@
         </is>
       </c>
       <c r="K23" s="9" t="n">
-        <v>148.47</v>
+        <v>763.2</v>
       </c>
       <c r="L23" s="9" t="n">
-        <v>148.47</v>
+        <v>648</v>
       </c>
       <c r="M23" s="17" t="inlineStr">
         <is>
@@ -2025,7 +2027,7 @@
         <v>38</v>
       </c>
       <c r="O23" s="7" t="n">
-        <v>5641.86</v>
+        <v>29001.6</v>
       </c>
     </row>
     <row r="24">
@@ -2034,31 +2036,19 @@
           <t>08-12-2022</t>
         </is>
       </c>
-      <c r="B24" s="14" t="inlineStr">
-        <is>
-          <t>08-12-2022</t>
-        </is>
-      </c>
+      <c r="B24" s="18" t="n"/>
       <c r="C24" s="17" t="inlineStr">
         <is>
           <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
-      <c r="D24" s="14" t="inlineStr">
-        <is>
-          <t>Kirill Nizovskiy - Dubai</t>
-        </is>
-      </c>
+      <c r="D24" s="18" t="n"/>
       <c r="E24" s="17" t="inlineStr">
         <is>
           <t>22BCA02-5</t>
         </is>
       </c>
-      <c r="F24" s="14" t="inlineStr">
-        <is>
-          <t>22BCA02-5</t>
-        </is>
-      </c>
+      <c r="F24" s="18" t="n"/>
       <c r="G24" s="17" t="inlineStr">
         <is>
           <t>Classic Vein Cut</t>
@@ -2066,12 +2056,12 @@
       </c>
       <c r="H24" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Classic Vein Cut - dolgulu fırçalı - 60,0x60,0x2,0 - 2365,2 m2 - 6570 adet - 132 kasa</t>
+          <t xml:space="preserve">Travertine Tiles - Classic Vein Cut - Dolgulu&amp;Fırçalı - 34,0xFREE(110-170)x3,0 - 241 m2 - 710 lmt </t>
         </is>
       </c>
       <c r="I24" s="17" t="inlineStr">
         <is>
-          <t>60,0x60,0x2,0</t>
+          <t>34,0xFreex3,0</t>
         </is>
       </c>
       <c r="J24" s="17" t="inlineStr">
@@ -2080,10 +2070,10 @@
         </is>
       </c>
       <c r="K24" s="9" t="n">
-        <v>763.2</v>
+        <v>51.73</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>648</v>
+        <v>29.17</v>
       </c>
       <c r="M24" s="17" t="inlineStr">
         <is>
@@ -2091,44 +2081,56 @@
         </is>
       </c>
       <c r="N24" s="7" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="O24" s="7" t="n">
-        <v>29001.6</v>
+        <v>2483.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>08-12-2022</t>
-        </is>
-      </c>
-      <c r="B25" s="18" t="n"/>
+          <t>14-07-2022</t>
+        </is>
+      </c>
+      <c r="B25" s="14" t="inlineStr">
+        <is>
+          <t>14-07-2022</t>
+        </is>
+      </c>
       <c r="C25" s="17" t="inlineStr">
         <is>
-          <t>Kirill Nizovskiy - Dubai</t>
-        </is>
-      </c>
-      <c r="D25" s="18" t="n"/>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D25" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E25" s="17" t="inlineStr">
         <is>
-          <t>22BCA02-5</t>
-        </is>
-      </c>
-      <c r="F25" s="18" t="n"/>
+          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
+        </is>
+      </c>
+      <c r="F25" s="14" t="inlineStr">
+        <is>
+          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
+        </is>
+      </c>
       <c r="G25" s="17" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H25" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Travertine Tiles - Classic Vein Cut - Dolgulu&amp;Fırçalı - 34,0xFREE(110-170)x3,0 - 241 m2 - 710 lmt </t>
+          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X150,0X2,0</t>
         </is>
       </c>
       <c r="I25" s="17" t="inlineStr">
         <is>
-          <t>34,0xFreex3,0</t>
+          <t>30,0x150,0x2,0</t>
         </is>
       </c>
       <c r="J25" s="17" t="inlineStr">
@@ -2137,21 +2139,21 @@
         </is>
       </c>
       <c r="K25" s="9" t="n">
-        <v>51.73</v>
+        <v>150</v>
       </c>
       <c r="L25" s="9" t="n">
-        <v>29.17</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="N25" s="7" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="O25" s="7" t="n">
-        <v>2483.04</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="26">
@@ -2160,31 +2162,19 @@
           <t>14-07-2022</t>
         </is>
       </c>
-      <c r="B26" s="14" t="inlineStr">
-        <is>
-          <t>14-07-2022</t>
-        </is>
-      </c>
+      <c r="B26" s="19" t="n"/>
       <c r="C26" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D26" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+      <c r="D26" s="19" t="n"/>
       <c r="E26" s="17" t="inlineStr">
         <is>
           <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
         </is>
       </c>
-      <c r="F26" s="14" t="inlineStr">
-        <is>
-          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
-        </is>
-      </c>
+      <c r="F26" s="19" t="n"/>
       <c r="G26" s="17" t="inlineStr">
         <is>
           <t>Classic Mina</t>
@@ -2192,12 +2182,12 @@
       </c>
       <c r="H26" s="17" t="inlineStr">
         <is>
-          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X150,0X2,0</t>
+          <t xml:space="preserve">Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X150,0X2,0 </t>
         </is>
       </c>
       <c r="I26" s="17" t="inlineStr">
         <is>
-          <t>30,0x150,0x2,0</t>
+          <t>16,0x150,0x2,0</t>
         </is>
       </c>
       <c r="J26" s="17" t="inlineStr">
@@ -2217,10 +2207,10 @@
         </is>
       </c>
       <c r="N26" s="7" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="O26" s="7" t="n">
-        <v>4200</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="27">
@@ -2249,12 +2239,12 @@
       </c>
       <c r="H27" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X150,0X2,0 </t>
+          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X120,0X2,0</t>
         </is>
       </c>
       <c r="I27" s="17" t="inlineStr">
         <is>
-          <t>16,0x150,0x2,0</t>
+          <t>30,0x120,0x2,0</t>
         </is>
       </c>
       <c r="J27" s="17" t="inlineStr">
@@ -2263,7 +2253,7 @@
         </is>
       </c>
       <c r="K27" s="9" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="L27" s="9" t="n">
         <v>0</v>
@@ -2274,10 +2264,10 @@
         </is>
       </c>
       <c r="N27" s="7" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="O27" s="7" t="n">
-        <v>2400</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="28">
@@ -2306,12 +2296,12 @@
       </c>
       <c r="H28" s="17" t="inlineStr">
         <is>
-          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X120,0X2,0</t>
+          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X120,0X2,0</t>
         </is>
       </c>
       <c r="I28" s="17" t="inlineStr">
         <is>
-          <t>30,0x120,0x2,0</t>
+          <t>16,0x120,0x2,0</t>
         </is>
       </c>
       <c r="J28" s="17" t="inlineStr">
@@ -2320,7 +2310,7 @@
         </is>
       </c>
       <c r="K28" s="9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L28" s="9" t="n">
         <v>0</v>
@@ -2331,10 +2321,10 @@
         </is>
       </c>
       <c r="N28" s="7" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O28" s="7" t="n">
-        <v>1920</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="29">
@@ -2363,12 +2353,12 @@
       </c>
       <c r="H29" s="17" t="inlineStr">
         <is>
-          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X120,0X2,0</t>
+          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X160,5X2,0</t>
         </is>
       </c>
       <c r="I29" s="17" t="inlineStr">
         <is>
-          <t>16,0x120,0x2,0</t>
+          <t>30,0x160,5x2,0</t>
         </is>
       </c>
       <c r="J29" s="17" t="inlineStr">
@@ -2377,7 +2367,7 @@
         </is>
       </c>
       <c r="K29" s="9" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L29" s="9" t="n">
         <v>0</v>
@@ -2388,10 +2378,10 @@
         </is>
       </c>
       <c r="N29" s="7" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O29" s="7" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30">
@@ -2420,12 +2410,12 @@
       </c>
       <c r="H30" s="17" t="inlineStr">
         <is>
-          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X160,5X2,0</t>
+          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X160,5X2,0</t>
         </is>
       </c>
       <c r="I30" s="17" t="inlineStr">
         <is>
-          <t>30,0x160,5x2,0</t>
+          <t>16,0x160,5x2,0</t>
         </is>
       </c>
       <c r="J30" s="17" t="inlineStr">
@@ -2445,10 +2435,10 @@
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O30" s="7" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31">
@@ -2477,12 +2467,12 @@
       </c>
       <c r="H31" s="17" t="inlineStr">
         <is>
-          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X160,5X2,0</t>
+          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X110,0X2,0</t>
         </is>
       </c>
       <c r="I31" s="17" t="inlineStr">
         <is>
-          <t>16,0x160,5x2,0</t>
+          <t>30,0x110,0x2,0</t>
         </is>
       </c>
       <c r="J31" s="17" t="inlineStr">
@@ -2491,7 +2481,7 @@
         </is>
       </c>
       <c r="K31" s="9" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L31" s="9" t="n">
         <v>0</v>
@@ -2502,10 +2492,10 @@
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O31" s="7" t="n">
-        <v>360</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="32">
@@ -2534,12 +2524,12 @@
       </c>
       <c r="H32" s="17" t="inlineStr">
         <is>
-          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0X110,0X2,0</t>
+          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X110,0X2,0</t>
         </is>
       </c>
       <c r="I32" s="17" t="inlineStr">
         <is>
-          <t>30,0x110,0x2,0</t>
+          <t>16,0x110,0x2,0</t>
         </is>
       </c>
       <c r="J32" s="17" t="inlineStr">
@@ -2559,10 +2549,10 @@
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O32" s="7" t="n">
-        <v>1920</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="33">
@@ -2591,12 +2581,12 @@
       </c>
       <c r="H33" s="17" t="inlineStr">
         <is>
-          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X110,0X2,0</t>
+          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 33,0X120,0X2,0</t>
         </is>
       </c>
       <c r="I33" s="17" t="inlineStr">
         <is>
-          <t>16,0x110,0x2,0</t>
+          <t>33,0x120,0x2,0</t>
         </is>
       </c>
       <c r="J33" s="17" t="inlineStr">
@@ -2605,7 +2595,7 @@
         </is>
       </c>
       <c r="K33" s="9" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L33" s="9" t="n">
         <v>0</v>
@@ -2616,10 +2606,10 @@
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O33" s="7" t="n">
-        <v>1120</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34">
@@ -2648,12 +2638,12 @@
       </c>
       <c r="H34" s="17" t="inlineStr">
         <is>
-          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 33,0X120,0X2,0</t>
+          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 32,0X130,0X2,0</t>
         </is>
       </c>
       <c r="I34" s="17" t="inlineStr">
         <is>
-          <t>33,0x120,0x2,0</t>
+          <t>32,0x130,0x2,0</t>
         </is>
       </c>
       <c r="J34" s="17" t="inlineStr">
@@ -2673,10 +2663,10 @@
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O34" s="7" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35">
@@ -2705,12 +2695,12 @@
       </c>
       <c r="H35" s="17" t="inlineStr">
         <is>
-          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 32,0X130,0X2,0</t>
+          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0x130,0x2,0</t>
         </is>
       </c>
       <c r="I35" s="17" t="inlineStr">
         <is>
-          <t>32,0x130,0x2,0</t>
+          <t>30,0x130,0x2,0</t>
         </is>
       </c>
       <c r="J35" s="17" t="inlineStr">
@@ -2719,7 +2709,7 @@
         </is>
       </c>
       <c r="K35" s="9" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="L35" s="9" t="n">
         <v>0</v>
@@ -2730,10 +2720,10 @@
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O35" s="7" t="n">
-        <v>540</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="36">
@@ -2742,19 +2732,19 @@
           <t>14-07-2022</t>
         </is>
       </c>
-      <c r="B36" s="19" t="n"/>
+      <c r="B36" s="18" t="n"/>
       <c r="C36" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D36" s="19" t="n"/>
+      <c r="D36" s="18" t="n"/>
       <c r="E36" s="17" t="inlineStr">
         <is>
           <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
         </is>
       </c>
-      <c r="F36" s="19" t="n"/>
+      <c r="F36" s="18" t="n"/>
       <c r="G36" s="17" t="inlineStr">
         <is>
           <t>Classic Mina</t>
@@ -2762,12 +2752,12 @@
       </c>
       <c r="H36" s="17" t="inlineStr">
         <is>
-          <t>Travertine Basamak - Classic Mina - Dolgulu&amp;Honlu - 30,0x130,0x2,0</t>
+          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X130,0X2,0</t>
         </is>
       </c>
       <c r="I36" s="17" t="inlineStr">
         <is>
-          <t>30,0x130,0x2,0</t>
+          <t>16,0x130,0x2,0</t>
         </is>
       </c>
       <c r="J36" s="17" t="inlineStr">
@@ -2776,7 +2766,7 @@
         </is>
       </c>
       <c r="K36" s="9" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="L36" s="9" t="n">
         <v>0</v>
@@ -2787,44 +2777,56 @@
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O36" s="7" t="n">
-        <v>2860</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14-07-2022</t>
-        </is>
-      </c>
-      <c r="B37" s="18" t="n"/>
+          <t>28-06-2022</t>
+        </is>
+      </c>
+      <c r="B37" s="14" t="inlineStr">
+        <is>
+          <t>28-06-2022</t>
+        </is>
+      </c>
       <c r="C37" s="17" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D37" s="18" t="n"/>
+          <t>Sanya Dogaltas - Turkey</t>
+        </is>
+      </c>
+      <c r="D37" s="14" t="inlineStr">
+        <is>
+          <t>Sanya Dogaltas - Turkey</t>
+        </is>
+      </c>
       <c r="E37" s="17" t="inlineStr">
         <is>
-          <t>Empire Court - Wentworth - Aston Loft - Stairs - 2</t>
-        </is>
-      </c>
-      <c r="F37" s="18" t="n"/>
+          <t>22SNY15 -7</t>
+        </is>
+      </c>
+      <c r="F37" s="14" t="inlineStr">
+        <is>
+          <t>22SNY15 -7</t>
+        </is>
+      </c>
       <c r="G37" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="H37" s="17" t="inlineStr">
         <is>
-          <t>Travertine Rıht - Classic Mina - Dolgulu&amp;Honlu - 16,0X130,0X2,0</t>
+          <t xml:space="preserve">Travertine Tiles - Yellow - Dolgulu&amp;Fırçalı- 10,0xFREEx1,2 </t>
         </is>
       </c>
       <c r="I37" s="17" t="inlineStr">
         <is>
-          <t>16,0x130,0x2,0</t>
+          <t>10,0xFreex1,2</t>
         </is>
       </c>
       <c r="J37" s="17" t="inlineStr">
@@ -2833,67 +2835,67 @@
         </is>
       </c>
       <c r="K37" s="9" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="L37" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M37" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="O37" s="7" t="n">
-        <v>1950</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="B38" s="14" t="inlineStr">
         <is>
-          <t>28-06-2022</t>
+          <t>06-06-2022</t>
         </is>
       </c>
       <c r="C38" s="17" t="inlineStr">
         <is>
-          <t>Sanya Dogaltas - Turkey</t>
+          <t>Francis-Ghana</t>
         </is>
       </c>
       <c r="D38" s="14" t="inlineStr">
         <is>
-          <t>Sanya Dogaltas - Turkey</t>
+          <t>Francis-Ghana</t>
         </is>
       </c>
       <c r="E38" s="17" t="inlineStr">
         <is>
-          <t>22SNY15 - 6</t>
+          <t>Empire Court House 10</t>
         </is>
       </c>
       <c r="F38" s="14" t="inlineStr">
         <is>
-          <t>22SNY15 - 6</t>
+          <t>Empire Court House 10</t>
         </is>
       </c>
       <c r="G38" s="17" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H38" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Yellow - Dolgusuz&amp;Honlu - 10,0xFREEx1,2 (500 Adet)</t>
+          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;Yarı Cilalı - 30,5X61,0X1,2  (2258 Adet)</t>
         </is>
       </c>
       <c r="I38" s="17" t="inlineStr">
         <is>
-          <t>10,0xFreex1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J38" s="17" t="inlineStr">
@@ -2902,10 +2904,10 @@
         </is>
       </c>
       <c r="K38" s="9" t="n">
-        <v>40</v>
+        <v>420.1</v>
       </c>
       <c r="L38" s="9" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M38" s="17" t="inlineStr">
         <is>
@@ -2913,10 +2915,10 @@
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="O38" s="7" t="n">
-        <v>420</v>
+        <v>9242.200000000001</v>
       </c>
     </row>
     <row r="39">
@@ -2925,56 +2927,44 @@
           <t>06-06-2022</t>
         </is>
       </c>
-      <c r="B39" s="14" t="inlineStr">
-        <is>
-          <t>06-06-2022</t>
-        </is>
-      </c>
+      <c r="B39" s="19" t="n"/>
       <c r="C39" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D39" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+      <c r="D39" s="19" t="n"/>
       <c r="E39" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 04 &amp; 05</t>
-        </is>
-      </c>
-      <c r="F39" s="14" t="inlineStr">
-        <is>
-          <t>Empire Court House 04 &amp; 05</t>
-        </is>
-      </c>
+          <t>Empire Court House 10</t>
+        </is>
+      </c>
+      <c r="F39" s="19" t="n"/>
       <c r="G39" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H39" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Cilalı- 30,5X61,0X1,2 (5375 Adet)</t>
+          <t>Travertine Mosaic - Classic Mina - Dolgulu&amp;Cilalı- 5,0x15,0 (1613 Adet)</t>
         </is>
       </c>
       <c r="I39" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>5,0x15,0x1,2</t>
         </is>
       </c>
       <c r="J39" s="17" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Mek-Moz</t>
         </is>
       </c>
       <c r="K39" s="9" t="n">
-        <v>1000</v>
+        <v>150.05</v>
       </c>
       <c r="L39" s="9" t="n">
-        <v>428.65</v>
+        <v>0</v>
       </c>
       <c r="M39" s="17" t="inlineStr">
         <is>
@@ -2982,10 +2972,10 @@
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O39" s="7" t="n">
-        <v>16000</v>
+        <v>4201.4</v>
       </c>
     </row>
     <row r="40">
@@ -3003,23 +2993,23 @@
       <c r="D40" s="18" t="n"/>
       <c r="E40" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 04 &amp; 05</t>
+          <t>Empire Court House 10</t>
         </is>
       </c>
       <c r="F40" s="18" t="n"/>
       <c r="G40" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina Vein Cut</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="H40" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Classic Mina Vein Cut - Dolgulu&amp;Yarı Cilalı - 15,25x30,5x1,2 (645 Adet)</t>
+          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Yarı Cilalı - 20,3X40,6X1,2 (1820 Adet)</t>
         </is>
       </c>
       <c r="I40" s="17" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="J40" s="17" t="inlineStr">
@@ -3028,7 +3018,7 @@
         </is>
       </c>
       <c r="K40" s="9" t="n">
-        <v>300</v>
+        <v>171.43</v>
       </c>
       <c r="L40" s="9" t="n">
         <v>0</v>
@@ -3039,10 +3029,10 @@
         </is>
       </c>
       <c r="N40" s="7" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="O40" s="7" t="n">
-        <v>4200</v>
+        <v>3600.03</v>
       </c>
     </row>
     <row r="41">
@@ -3068,27 +3058,27 @@
       </c>
       <c r="E41" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 03 - 3</t>
+          <t>Empire Court House 08</t>
         </is>
       </c>
       <c r="F41" s="14" t="inlineStr">
         <is>
-          <t>Empire Court House 03 - 3</t>
+          <t>Empire Court House 08</t>
         </is>
       </c>
       <c r="G41" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H41" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Cilalı- 20,3x40,6x1,2 (693 Adet)</t>
+          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;Yarı Cilalı - 30,5X61,0X1,2 (699 Adet)</t>
         </is>
       </c>
       <c r="I41" s="17" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J41" s="17" t="inlineStr">
@@ -3097,7 +3087,7 @@
         </is>
       </c>
       <c r="K41" s="9" t="n">
-        <v>57.12</v>
+        <v>130.05</v>
       </c>
       <c r="L41" s="9" t="n">
         <v>0</v>
@@ -3108,10 +3098,10 @@
         </is>
       </c>
       <c r="N41" s="7" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="O41" s="7" t="n">
-        <v>913.92</v>
+        <v>2861.1</v>
       </c>
     </row>
     <row r="42">
@@ -3120,44 +3110,32 @@
           <t>06-06-2022</t>
         </is>
       </c>
-      <c r="B42" s="14" t="inlineStr">
-        <is>
-          <t>06-06-2022</t>
-        </is>
-      </c>
+      <c r="B42" s="18" t="n"/>
       <c r="C42" s="17" t="inlineStr">
         <is>
-          <t>Henry - Ghana</t>
-        </is>
-      </c>
-      <c r="D42" s="14" t="inlineStr">
-        <is>
-          <t>Henry - Ghana</t>
-        </is>
-      </c>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D42" s="18" t="n"/>
       <c r="E42" s="17" t="inlineStr">
         <is>
-          <t>Carl Mutt - 5</t>
-        </is>
-      </c>
-      <c r="F42" s="14" t="inlineStr">
-        <is>
-          <t>Carl Mutt - 5</t>
-        </is>
-      </c>
+          <t>Empire Court House 08</t>
+        </is>
+      </c>
+      <c r="F42" s="18" t="n"/>
       <c r="G42" s="17" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="H42" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Gold - Cilalı - 50,0x100,0x2,0</t>
+          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Yarı Cilalı - 15,25X30,5X1,2 (215 Adet)</t>
         </is>
       </c>
       <c r="I42" s="17" t="inlineStr">
         <is>
-          <t>50,0x100,0x2,0</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="J42" s="17" t="inlineStr">
@@ -3166,10 +3144,10 @@
         </is>
       </c>
       <c r="K42" s="9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L42" s="9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M42" s="17" t="inlineStr">
         <is>
@@ -3177,10 +3155,10 @@
         </is>
       </c>
       <c r="N42" s="7" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="O42" s="7" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="43">
@@ -3206,12 +3184,12 @@
       </c>
       <c r="E43" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 2A</t>
+          <t>Empire Court House 2B</t>
         </is>
       </c>
       <c r="F43" s="14" t="inlineStr">
         <is>
-          <t>Empire Court House 2A</t>
+          <t>Empire Court House 2B</t>
         </is>
       </c>
       <c r="G43" s="17" t="inlineStr">
@@ -3221,7 +3199,7 @@
       </c>
       <c r="H43" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;yarı Cilalı - 30,5X61,0X1,2 (1237 Adet)</t>
+          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;Yarı Cilalı - 30,5X61,0X1,2 (1237 Adet)</t>
         </is>
       </c>
       <c r="I43" s="17" t="inlineStr">
@@ -3267,7 +3245,7 @@
       <c r="D44" s="18" t="n"/>
       <c r="E44" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 2A</t>
+          <t>Empire Court House 2B</t>
         </is>
       </c>
       <c r="F44" s="18" t="n"/>
@@ -3278,7 +3256,7 @@
       </c>
       <c r="H44" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Yarı Cilalı - 15,25x30,5x1,2 (323 Adet)</t>
+          <t>Travertine Tiles - Picasso Ivory -  Dolgulu&amp;Yarı Cilalı - 15,25X30,5X1,2 (323 Adet)</t>
         </is>
       </c>
       <c r="I44" s="17" t="inlineStr">
@@ -3292,10 +3270,10 @@
         </is>
       </c>
       <c r="K44" s="9" t="n">
-        <v>150.24</v>
+        <v>150.23</v>
       </c>
       <c r="L44" s="9" t="n">
-        <v>135.54</v>
+        <v>43.91</v>
       </c>
       <c r="M44" s="17" t="inlineStr">
         <is>
@@ -3306,7 +3284,7 @@
         <v>18</v>
       </c>
       <c r="O44" s="7" t="n">
-        <v>2704.32</v>
+        <v>2704.14</v>
       </c>
     </row>
     <row r="45">
@@ -3322,37 +3300,37 @@
       </c>
       <c r="C45" s="17" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
+          <t>Henry - Ghana</t>
         </is>
       </c>
       <c r="D45" s="14" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
+          <t>Henry - Ghana</t>
         </is>
       </c>
       <c r="E45" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 2B</t>
+          <t>Carl Mutt - 5</t>
         </is>
       </c>
       <c r="F45" s="14" t="inlineStr">
         <is>
-          <t>Empire Court House 2B</t>
+          <t>Carl Mutt - 5</t>
         </is>
       </c>
       <c r="G45" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="H45" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;Yarı Cilalı - 30,5X61,0X1,2 (1237 Adet)</t>
+          <t>Travertine Tiles - Gold - Cilalı - 50,0x100,0x2,0</t>
         </is>
       </c>
       <c r="I45" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>50,0x100,0x2,0</t>
         </is>
       </c>
       <c r="J45" s="17" t="inlineStr">
@@ -3361,10 +3339,10 @@
         </is>
       </c>
       <c r="K45" s="9" t="n">
-        <v>230.14</v>
+        <v>50</v>
       </c>
       <c r="L45" s="9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M45" s="17" t="inlineStr">
         <is>
@@ -3372,10 +3350,10 @@
         </is>
       </c>
       <c r="N45" s="7" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="O45" s="7" t="n">
-        <v>5063.08</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="46">
@@ -3384,32 +3362,44 @@
           <t>06-06-2022</t>
         </is>
       </c>
-      <c r="B46" s="18" t="n"/>
+      <c r="B46" s="14" t="inlineStr">
+        <is>
+          <t>06-06-2022</t>
+        </is>
+      </c>
       <c r="C46" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D46" s="18" t="n"/>
+      <c r="D46" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E46" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 2B</t>
-        </is>
-      </c>
-      <c r="F46" s="18" t="n"/>
+          <t>Empire Court House 2A</t>
+        </is>
+      </c>
+      <c r="F46" s="14" t="inlineStr">
+        <is>
+          <t>Empire Court House 2A</t>
+        </is>
+      </c>
       <c r="G46" s="17" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H46" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Picasso Ivory -  Dolgulu&amp;Yarı Cilalı - 15,25X30,5X1,2 (323 Adet)</t>
+          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;yarı Cilalı - 30,5X61,0X1,2 (1237 Adet)</t>
         </is>
       </c>
       <c r="I46" s="17" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J46" s="17" t="inlineStr">
@@ -3418,10 +3408,10 @@
         </is>
       </c>
       <c r="K46" s="9" t="n">
-        <v>150.23</v>
+        <v>230.14</v>
       </c>
       <c r="L46" s="9" t="n">
-        <v>43.91</v>
+        <v>0</v>
       </c>
       <c r="M46" s="17" t="inlineStr">
         <is>
@@ -3429,10 +3419,10 @@
         </is>
       </c>
       <c r="N46" s="7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O46" s="7" t="n">
-        <v>2704.14</v>
+        <v>5063.08</v>
       </c>
     </row>
     <row r="47">
@@ -3441,44 +3431,32 @@
           <t>06-06-2022</t>
         </is>
       </c>
-      <c r="B47" s="14" t="inlineStr">
-        <is>
-          <t>06-06-2022</t>
-        </is>
-      </c>
+      <c r="B47" s="18" t="n"/>
       <c r="C47" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D47" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+      <c r="D47" s="18" t="n"/>
       <c r="E47" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 08</t>
-        </is>
-      </c>
-      <c r="F47" s="14" t="inlineStr">
-        <is>
-          <t>Empire Court House 08</t>
-        </is>
-      </c>
+          <t>Empire Court House 2A</t>
+        </is>
+      </c>
+      <c r="F47" s="18" t="n"/>
       <c r="G47" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="H47" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;Yarı Cilalı - 30,5X61,0X1,2 (699 Adet)</t>
+          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Yarı Cilalı - 15,25x30,5x1,2 (323 Adet)</t>
         </is>
       </c>
       <c r="I47" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="J47" s="17" t="inlineStr">
@@ -3487,10 +3465,10 @@
         </is>
       </c>
       <c r="K47" s="9" t="n">
-        <v>130.05</v>
+        <v>150.24</v>
       </c>
       <c r="L47" s="9" t="n">
-        <v>0</v>
+        <v>135.54</v>
       </c>
       <c r="M47" s="17" t="inlineStr">
         <is>
@@ -3498,10 +3476,10 @@
         </is>
       </c>
       <c r="N47" s="7" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O47" s="7" t="n">
-        <v>2861.1</v>
+        <v>2704.32</v>
       </c>
     </row>
     <row r="48">
@@ -3510,32 +3488,44 @@
           <t>06-06-2022</t>
         </is>
       </c>
-      <c r="B48" s="18" t="n"/>
+      <c r="B48" s="14" t="inlineStr">
+        <is>
+          <t>06-06-2022</t>
+        </is>
+      </c>
       <c r="C48" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D48" s="18" t="n"/>
+      <c r="D48" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E48" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 08</t>
-        </is>
-      </c>
-      <c r="F48" s="18" t="n"/>
+          <t>Empire Court House 04 &amp; 05</t>
+        </is>
+      </c>
+      <c r="F48" s="14" t="inlineStr">
+        <is>
+          <t>Empire Court House 04 &amp; 05</t>
+        </is>
+      </c>
       <c r="G48" s="17" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="H48" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Yarı Cilalı - 15,25X30,5X1,2 (215 Adet)</t>
+          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Cilalı- 30,5X61,0X1,2 (5375 Adet)</t>
         </is>
       </c>
       <c r="I48" s="17" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J48" s="17" t="inlineStr">
@@ -3544,10 +3534,10 @@
         </is>
       </c>
       <c r="K48" s="9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="L48" s="9" t="n">
-        <v>0</v>
+        <v>311.44</v>
       </c>
       <c r="M48" s="17" t="inlineStr">
         <is>
@@ -3555,10 +3545,10 @@
         </is>
       </c>
       <c r="N48" s="7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O48" s="7" t="n">
-        <v>1800</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="49">
@@ -3567,44 +3557,32 @@
           <t>06-06-2022</t>
         </is>
       </c>
-      <c r="B49" s="14" t="inlineStr">
-        <is>
-          <t>06-06-2022</t>
-        </is>
-      </c>
+      <c r="B49" s="18" t="n"/>
       <c r="C49" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D49" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+      <c r="D49" s="18" t="n"/>
       <c r="E49" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 10</t>
-        </is>
-      </c>
-      <c r="F49" s="14" t="inlineStr">
-        <is>
-          <t>Empire Court House 10</t>
-        </is>
-      </c>
+          <t>Empire Court House 04 &amp; 05</t>
+        </is>
+      </c>
+      <c r="F49" s="18" t="n"/>
       <c r="G49" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Mina Vein Cut</t>
         </is>
       </c>
       <c r="H49" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Classic Mina - Dolgulu&amp;Yarı Cilalı - 30,5X61,0X1,2  (2258 Adet)</t>
+          <t>Travertine Tiles - Classic Mina Vein Cut - Dolgulu&amp;Yarı Cilalı - 15,25x30,5x1,2 (645 Adet)</t>
         </is>
       </c>
       <c r="I49" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="J49" s="17" t="inlineStr">
@@ -3613,7 +3591,7 @@
         </is>
       </c>
       <c r="K49" s="9" t="n">
-        <v>420.1</v>
+        <v>300</v>
       </c>
       <c r="L49" s="9" t="n">
         <v>0</v>
@@ -3624,10 +3602,10 @@
         </is>
       </c>
       <c r="N49" s="7" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O49" s="7" t="n">
-        <v>9242.200000000001</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="50">
@@ -3636,41 +3614,53 @@
           <t>06-06-2022</t>
         </is>
       </c>
-      <c r="B50" s="19" t="n"/>
+      <c r="B50" s="14" t="inlineStr">
+        <is>
+          <t>06-06-2022</t>
+        </is>
+      </c>
       <c r="C50" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D50" s="19" t="n"/>
+      <c r="D50" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E50" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 10</t>
-        </is>
-      </c>
-      <c r="F50" s="19" t="n"/>
+          <t>Empire Court House 03 - 3</t>
+        </is>
+      </c>
+      <c r="F50" s="14" t="inlineStr">
+        <is>
+          <t>Empire Court House 03 - 3</t>
+        </is>
+      </c>
       <c r="G50" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="H50" s="17" t="inlineStr">
         <is>
-          <t>Travertine Mosaic - Classic Mina - Dolgulu&amp;Cilalı- 5,0x15,0 (1613 Adet)</t>
+          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Cilalı- 20,3x40,6x1,2 (693 Adet)</t>
         </is>
       </c>
       <c r="I50" s="17" t="inlineStr">
         <is>
-          <t>5,0x15,0x1,2</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="J50" s="17" t="inlineStr">
         <is>
-          <t>Mek-Moz</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K50" s="9" t="n">
-        <v>150.05</v>
+        <v>57.12</v>
       </c>
       <c r="L50" s="9" t="n">
         <v>0</v>
@@ -3681,44 +3671,56 @@
         </is>
       </c>
       <c r="N50" s="7" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="O50" s="7" t="n">
-        <v>4201.4</v>
+        <v>913.92</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>06-06-2022</t>
-        </is>
-      </c>
-      <c r="B51" s="18" t="n"/>
+          <t>25-04-2022</t>
+        </is>
+      </c>
+      <c r="B51" s="14" t="inlineStr">
+        <is>
+          <t>25-04-2022</t>
+        </is>
+      </c>
       <c r="C51" s="17" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D51" s="18" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="D51" s="14" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
       <c r="E51" s="17" t="inlineStr">
         <is>
-          <t>Empire Court House 10</t>
-        </is>
-      </c>
-      <c r="F51" s="18" t="n"/>
+          <t>22EFE01-12</t>
+        </is>
+      </c>
+      <c r="F51" s="14" t="inlineStr">
+        <is>
+          <t>22EFE01-12</t>
+        </is>
+      </c>
       <c r="G51" s="17" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H51" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Yarı Cilalı - 20,3X40,6X1,2 (1820 Adet)</t>
+          <t>Travertine Tiles - Valencia - Dolgulu&amp;Honlu - 30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="I51" s="17" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J51" s="17" t="inlineStr">
@@ -3727,10 +3729,10 @@
         </is>
       </c>
       <c r="K51" s="9" t="n">
-        <v>171.43</v>
+        <v>327.47</v>
       </c>
       <c r="L51" s="9" t="n">
-        <v>171.43</v>
+        <v>476.32</v>
       </c>
       <c r="M51" s="17" t="inlineStr">
         <is>
@@ -3738,10 +3740,10 @@
         </is>
       </c>
       <c r="N51" s="7" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="O51" s="7" t="n">
-        <v>3600.03</v>
+        <v>7040.61</v>
       </c>
     </row>
     <row r="52">
@@ -3750,31 +3752,19 @@
           <t>25-04-2022</t>
         </is>
       </c>
-      <c r="B52" s="14" t="inlineStr">
-        <is>
-          <t>25-04-2022</t>
-        </is>
-      </c>
+      <c r="B52" s="19" t="n"/>
       <c r="C52" s="17" t="inlineStr">
         <is>
           <t>Efe - Turkey</t>
         </is>
       </c>
-      <c r="D52" s="14" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
+      <c r="D52" s="19" t="n"/>
       <c r="E52" s="17" t="inlineStr">
         <is>
           <t>22EFE01-12</t>
         </is>
       </c>
-      <c r="F52" s="14" t="inlineStr">
-        <is>
-          <t>22EFE01-12</t>
-        </is>
-      </c>
+      <c r="F52" s="19" t="n"/>
       <c r="G52" s="17" t="inlineStr">
         <is>
           <t>Valencia</t>
@@ -3782,12 +3772,12 @@
       </c>
       <c r="H52" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Valencia - Dolgulu&amp;Honlu - 30,5x61,0x1,2</t>
+          <t>Travertine Tiles - Valencia - Dolgulu&amp;Honlu - 45,7x45,7x1,2</t>
         </is>
       </c>
       <c r="I52" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>45,7x45,7x1,2</t>
         </is>
       </c>
       <c r="J52" s="17" t="inlineStr">
@@ -3796,10 +3786,10 @@
         </is>
       </c>
       <c r="K52" s="9" t="n">
-        <v>476.32</v>
+        <v>334.2</v>
       </c>
       <c r="L52" s="9" t="n">
-        <v>476.32</v>
+        <v>33.42</v>
       </c>
       <c r="M52" s="17" t="inlineStr">
         <is>
@@ -3807,10 +3797,10 @@
         </is>
       </c>
       <c r="N52" s="7" t="n">
-        <v>7.75</v>
+        <v>23.5</v>
       </c>
       <c r="O52" s="7" t="n">
-        <v>3691.48</v>
+        <v>7853.7</v>
       </c>
     </row>
     <row r="53">
@@ -3839,12 +3829,12 @@
       </c>
       <c r="H53" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Valencia - Dolgusuz&amp;Fırçalı&amp;Kenarı Kırık - ANTxPATx1,2</t>
+          <t>Travertine Tiles - Valencia - Dolgulu&amp;Honlu- 61,0X61,0X1,5</t>
         </is>
       </c>
       <c r="I53" s="17" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>61,0x61,0x1,5</t>
         </is>
       </c>
       <c r="J53" s="17" t="inlineStr">
@@ -3853,10 +3843,10 @@
         </is>
       </c>
       <c r="K53" s="9" t="n">
-        <v>120.42</v>
+        <v>169.33</v>
       </c>
       <c r="L53" s="9" t="n">
-        <v>120.42</v>
+        <v>145.14</v>
       </c>
       <c r="M53" s="17" t="inlineStr">
         <is>
@@ -3864,10 +3854,10 @@
         </is>
       </c>
       <c r="N53" s="7" t="n">
-        <v>7.5</v>
+        <v>34.5</v>
       </c>
       <c r="O53" s="7" t="n">
-        <v>903.15</v>
+        <v>5841.89</v>
       </c>
     </row>
     <row r="54">
@@ -3896,12 +3886,12 @@
       </c>
       <c r="H54" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Valencia - Dolgusuz&amp;Fırçalı&amp;Kenarı Kırık - 40,6x61,0x1,2</t>
+          <t>Travertine Tiles-Valencia-ESkitme-15,0X15,0X1,0</t>
         </is>
       </c>
       <c r="I54" s="17" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>15,0x15,0x1,0</t>
         </is>
       </c>
       <c r="J54" s="17" t="inlineStr">
@@ -3910,10 +3900,10 @@
         </is>
       </c>
       <c r="K54" s="9" t="n">
-        <v>317.04</v>
+        <v>54</v>
       </c>
       <c r="L54" s="9" t="n">
-        <v>317.04</v>
+        <v>0</v>
       </c>
       <c r="M54" s="17" t="inlineStr">
         <is>
@@ -3921,10 +3911,10 @@
         </is>
       </c>
       <c r="N54" s="7" t="n">
-        <v>7.75</v>
+        <v>16.5</v>
       </c>
       <c r="O54" s="7" t="n">
-        <v>2457.06</v>
+        <v>891</v>
       </c>
     </row>
     <row r="55">
@@ -3933,19 +3923,19 @@
           <t>25-04-2022</t>
         </is>
       </c>
-      <c r="B55" s="18" t="n"/>
+      <c r="B55" s="19" t="n"/>
       <c r="C55" s="17" t="inlineStr">
         <is>
           <t>Efe - Turkey</t>
         </is>
       </c>
-      <c r="D55" s="18" t="n"/>
+      <c r="D55" s="19" t="n"/>
       <c r="E55" s="17" t="inlineStr">
         <is>
           <t>22EFE01-12</t>
         </is>
       </c>
-      <c r="F55" s="18" t="n"/>
+      <c r="F55" s="19" t="n"/>
       <c r="G55" s="17" t="inlineStr">
         <is>
           <t>Valencia</t>
@@ -3953,12 +3943,12 @@
       </c>
       <c r="H55" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Valencia - Dolgulu&amp;Honlu - 45,7x45,7x1,2</t>
+          <t>Travertine Tiles-Valencia-Dolgulu&amp;Honlu-30,5X30,5X1,0</t>
         </is>
       </c>
       <c r="I55" s="17" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>30,5x30,5x1,0</t>
         </is>
       </c>
       <c r="J55" s="17" t="inlineStr">
@@ -3967,10 +3957,10 @@
         </is>
       </c>
       <c r="K55" s="9" t="n">
-        <v>33.42</v>
+        <v>66.98</v>
       </c>
       <c r="L55" s="9" t="n">
-        <v>33.42</v>
+        <v>0</v>
       </c>
       <c r="M55" s="17" t="inlineStr">
         <is>
@@ -3978,56 +3968,44 @@
         </is>
       </c>
       <c r="N55" s="7" t="n">
-        <v>7.5</v>
+        <v>19.5</v>
       </c>
       <c r="O55" s="7" t="n">
-        <v>250.65</v>
+        <v>1306.11</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>05-04-2022</t>
-        </is>
-      </c>
-      <c r="B56" s="14" t="inlineStr">
-        <is>
-          <t>05-04-2022</t>
-        </is>
-      </c>
+          <t>25-04-2022</t>
+        </is>
+      </c>
+      <c r="B56" s="19" t="n"/>
       <c r="C56" s="17" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D56" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="D56" s="19" t="n"/>
       <c r="E56" s="17" t="inlineStr">
         <is>
-          <t>Wenthworth Place 02 - 2</t>
-        </is>
-      </c>
-      <c r="F56" s="14" t="inlineStr">
-        <is>
-          <t>Wenthworth Place 02 - 2</t>
-        </is>
-      </c>
+          <t>22EFE01-12</t>
+        </is>
+      </c>
+      <c r="F56" s="19" t="n"/>
       <c r="G56" s="17" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H56" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Classic Vein Cut - Dolgulu&amp;Honlu- 30,5X61,0X1,2 (323 Adet)</t>
+          <t>Travertine Tiles - Valencia - Dolgusuz&amp;Fırçalı&amp;Eskitme- 40,6X40,6X3,0</t>
         </is>
       </c>
       <c r="I56" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>40,6x40,6x3,0</t>
         </is>
       </c>
       <c r="J56" s="17" t="inlineStr">
@@ -4036,10 +4014,10 @@
         </is>
       </c>
       <c r="K56" s="9" t="n">
-        <v>60.09</v>
+        <v>358.03</v>
       </c>
       <c r="L56" s="9" t="n">
-        <v>68.84</v>
+        <v>112.16</v>
       </c>
       <c r="M56" s="17" t="inlineStr">
         <is>
@@ -4047,53 +4025,53 @@
         </is>
       </c>
       <c r="N56" s="7" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O56" s="7" t="n">
-        <v>1562.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>05-04-2022</t>
-        </is>
-      </c>
-      <c r="B57" s="18" t="n"/>
+          <t>25-04-2022</t>
+        </is>
+      </c>
+      <c r="B57" s="19" t="n"/>
       <c r="C57" s="17" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D57" s="18" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="D57" s="19" t="n"/>
       <c r="E57" s="17" t="inlineStr">
         <is>
-          <t>Wenthworth Place 02 - 2</t>
-        </is>
-      </c>
-      <c r="F57" s="18" t="n"/>
+          <t>22EFE01-12</t>
+        </is>
+      </c>
+      <c r="F57" s="19" t="n"/>
       <c r="G57" s="17" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H57" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Travertine Mosaic - Classic Vein Cut - Dolgulu&amp;Cilalı- 5,0X15,0 (323 Adet) </t>
+          <t>Travertine Tiles-Valencia-Eskitme-10,0X10,0X1,0</t>
         </is>
       </c>
       <c r="I57" s="17" t="inlineStr">
         <is>
-          <t>5,0x15,0x</t>
+          <t>10,0x10,0x1,0</t>
         </is>
       </c>
       <c r="J57" s="17" t="inlineStr">
         <is>
-          <t>Mek-Moz</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="K57" s="9" t="n">
-        <v>30.05</v>
+        <v>43.2</v>
       </c>
       <c r="L57" s="9" t="n">
         <v>0</v>
@@ -4104,56 +4082,44 @@
         </is>
       </c>
       <c r="N57" s="7" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="O57" s="7" t="n">
-        <v>781.3</v>
+        <v>669.6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>23-02-2022</t>
-        </is>
-      </c>
-      <c r="B58" s="14" t="inlineStr">
-        <is>
-          <t>23-02-2022</t>
-        </is>
-      </c>
+          <t>25-04-2022</t>
+        </is>
+      </c>
+      <c r="B58" s="19" t="n"/>
       <c r="C58" s="17" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
-        </is>
-      </c>
-      <c r="D58" s="14" t="inlineStr">
-        <is>
-          <t>Bernard Osei - Ghana</t>
-        </is>
-      </c>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="D58" s="19" t="n"/>
       <c r="E58" s="17" t="inlineStr">
         <is>
-          <t>22BERNARD01-6</t>
-        </is>
-      </c>
-      <c r="F58" s="14" t="inlineStr">
-        <is>
-          <t>22BERNARD01-6</t>
-        </is>
-      </c>
+          <t>22EFE01-12</t>
+        </is>
+      </c>
+      <c r="F58" s="19" t="n"/>
       <c r="G58" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H58" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Silver - Dolgulu&amp;Yarı Cilalı - 40,6X61,0X1,2(2699 adet)</t>
+          <t>Travertine Tiles - Valencia - Dolgusuz&amp;Fırçalı&amp;Kenarı Kırık- 40,6X40,6X1,2</t>
         </is>
       </c>
       <c r="I58" s="17" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>40,6x40,6x1,2</t>
         </is>
       </c>
       <c r="J58" s="17" t="inlineStr">
@@ -4162,7 +4128,7 @@
         </is>
       </c>
       <c r="K58" s="9" t="n">
-        <v>454.2</v>
+        <v>131.87</v>
       </c>
       <c r="L58" s="9" t="n">
         <v>0</v>
@@ -4173,44 +4139,44 @@
         </is>
       </c>
       <c r="N58" s="7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="O58" s="7" t="n">
-        <v>12263.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>23-02-2022</t>
+          <t>25-04-2022</t>
         </is>
       </c>
       <c r="B59" s="19" t="n"/>
       <c r="C59" s="17" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="D59" s="19" t="n"/>
       <c r="E59" s="17" t="inlineStr">
         <is>
-          <t>22BERNARD01-6</t>
+          <t>22EFE01-12</t>
         </is>
       </c>
       <c r="F59" s="19" t="n"/>
       <c r="G59" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H59" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Silver - Dolgulu&amp;Yarı Cilalı - 30,5X61,0X1,2(2.210 adet)</t>
+          <t>Travertine Tiles - Valencia - Dolgusuz&amp;Fırçalı&amp;Kenarı Kırık- 40,6X61,0X1,2</t>
         </is>
       </c>
       <c r="I59" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="J59" s="17" t="inlineStr">
@@ -4219,55 +4185,55 @@
         </is>
       </c>
       <c r="K59" s="9" t="n">
-        <v>361.68</v>
+        <v>39.63</v>
       </c>
       <c r="L59" s="9" t="n">
+        <v>356.67</v>
+      </c>
+      <c r="M59" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N59" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M59" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N59" s="7" t="n">
-        <v>26</v>
-      </c>
       <c r="O59" s="7" t="n">
-        <v>9403.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>23-02-2022</t>
+          <t>25-04-2022</t>
         </is>
       </c>
       <c r="B60" s="19" t="n"/>
       <c r="C60" s="17" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="D60" s="19" t="n"/>
       <c r="E60" s="17" t="inlineStr">
         <is>
-          <t>22BERNARD01-6</t>
+          <t>22EFE01-12</t>
         </is>
       </c>
       <c r="F60" s="19" t="n"/>
       <c r="G60" s="17" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H60" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Picasso - Dolgulu&amp;Fırçalı&amp;Kenarı Kırık- MiniXPATX1,2</t>
+          <t>Travertine Tiles - Valencia - Dolgusuz&amp;Honlu- 30,0X60,0X2,0</t>
         </is>
       </c>
       <c r="I60" s="17" t="inlineStr">
         <is>
-          <t>MinixPATx1,2</t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="J60" s="17" t="inlineStr">
@@ -4276,10 +4242,10 @@
         </is>
       </c>
       <c r="K60" s="9" t="n">
-        <v>120.08</v>
+        <v>113.4</v>
       </c>
       <c r="L60" s="9" t="n">
-        <v>77.76000000000001</v>
+        <v>113.4</v>
       </c>
       <c r="M60" s="17" t="inlineStr">
         <is>
@@ -4287,44 +4253,44 @@
         </is>
       </c>
       <c r="N60" s="7" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O60" s="7" t="n">
-        <v>2281.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>23-02-2022</t>
+          <t>25-04-2022</t>
         </is>
       </c>
       <c r="B61" s="19" t="n"/>
       <c r="C61" s="17" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="D61" s="19" t="n"/>
       <c r="E61" s="17" t="inlineStr">
         <is>
-          <t>22BERNARD01-6</t>
+          <t>22EFE01-12</t>
         </is>
       </c>
       <c r="F61" s="19" t="n"/>
       <c r="G61" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H61" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Silver - Cilalı- 15,25X30,5X1,2(5838 adet)</t>
+          <t>Travertine Tiles - Valencia - Dolgusuz&amp;Honlu- 40,0X40,0X2,0</t>
         </is>
       </c>
       <c r="I61" s="17" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>40,0x40,0x2,0</t>
         </is>
       </c>
       <c r="J61" s="17" t="inlineStr">
@@ -4333,10 +4299,10 @@
         </is>
       </c>
       <c r="K61" s="9" t="n">
-        <v>74.33</v>
+        <v>242.88</v>
       </c>
       <c r="L61" s="9" t="n">
-        <v>78.14</v>
+        <v>242.88</v>
       </c>
       <c r="M61" s="17" t="inlineStr">
         <is>
@@ -4344,44 +4310,44 @@
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O61" s="7" t="n">
-        <v>1263.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>23-02-2022</t>
+          <t>25-04-2022</t>
         </is>
       </c>
       <c r="B62" s="19" t="n"/>
       <c r="C62" s="17" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="D62" s="19" t="n"/>
       <c r="E62" s="17" t="inlineStr">
         <is>
-          <t>22BERNARD01-6</t>
+          <t>22EFE01-12</t>
         </is>
       </c>
       <c r="F62" s="19" t="n"/>
       <c r="G62" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H62" s="17" t="inlineStr">
         <is>
-          <t>Traverten Basamak - Silver - Dolgulu&amp;Yarı Cilalı - 30,0X110,0X2,0 - 3 tane kaymazlık çizgisi açılacak (Mehmet Bey'in odasında örnek var)</t>
+          <t>Travertine Tiles - Valencia - Dolgusuz&amp;Honlu- 15,0X40,0X2,0</t>
         </is>
       </c>
       <c r="I62" s="17" t="inlineStr">
         <is>
-          <t>30,0x110,0x2,0</t>
+          <t>15,0x40,0x2,0</t>
         </is>
       </c>
       <c r="J62" s="17" t="inlineStr">
@@ -4390,55 +4356,55 @@
         </is>
       </c>
       <c r="K62" s="9" t="n">
-        <v>300</v>
+        <v>85.8</v>
       </c>
       <c r="L62" s="9" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="M62" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N62" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M62" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N62" s="7" t="n">
-        <v>21</v>
-      </c>
       <c r="O62" s="7" t="n">
-        <v>6300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>23-02-2022</t>
+          <t>25-04-2022</t>
         </is>
       </c>
       <c r="B63" s="19" t="n"/>
       <c r="C63" s="17" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="D63" s="19" t="n"/>
       <c r="E63" s="17" t="inlineStr">
         <is>
-          <t>22BERNARD01-6</t>
+          <t>22EFE01-12</t>
         </is>
       </c>
       <c r="F63" s="19" t="n"/>
       <c r="G63" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H63" s="17" t="inlineStr">
         <is>
-          <t>Traverten Rıht - Silver - Dolgulu&amp;Yarı Cilalı - 16,0X110,0X2,0</t>
+          <t>Travertine Tiles - Valencia - Dolgusuz&amp;Honlu- 30,0X40,0X2,0</t>
         </is>
       </c>
       <c r="I63" s="17" t="inlineStr">
         <is>
-          <t>16,0x110,0x2,0</t>
+          <t>30,0x40,0x2,0</t>
         </is>
       </c>
       <c r="J63" s="17" t="inlineStr">
@@ -4447,55 +4413,55 @@
         </is>
       </c>
       <c r="K63" s="9" t="n">
-        <v>300</v>
+        <v>37.8</v>
       </c>
       <c r="L63" s="9" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="M63" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N63" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M63" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N63" s="7" t="n">
-        <v>11</v>
-      </c>
       <c r="O63" s="7" t="n">
-        <v>3300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>23-02-2022</t>
-        </is>
-      </c>
-      <c r="B64" s="18" t="n"/>
+          <t>25-04-2022</t>
+        </is>
+      </c>
+      <c r="B64" s="19" t="n"/>
       <c r="C64" s="17" t="inlineStr">
         <is>
-          <t>Bernard Osei - Ghana</t>
-        </is>
-      </c>
-      <c r="D64" s="18" t="n"/>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="D64" s="19" t="n"/>
       <c r="E64" s="17" t="inlineStr">
         <is>
-          <t>22BERNARD01-6</t>
-        </is>
-      </c>
-      <c r="F64" s="18" t="n"/>
+          <t>22EFE01-12</t>
+        </is>
+      </c>
+      <c r="F64" s="19" t="n"/>
       <c r="G64" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H64" s="17" t="inlineStr">
         <is>
-          <t>Traverten Sahanlık - Silver - Dolgulu&amp;Yarı Cilalı - 43,0X110,0X2,0</t>
+          <t>Travertine Tiles - Valencia - Dolgusuz&amp;Honlu- 20,0X40,0X2,0</t>
         </is>
       </c>
       <c r="I64" s="17" t="inlineStr">
         <is>
-          <t>43,0x110,0x2,0</t>
+          <t>20,0x40,0x2,0</t>
         </is>
       </c>
       <c r="J64" s="17" t="inlineStr">
@@ -4504,67 +4470,55 @@
         </is>
       </c>
       <c r="K64" s="9" t="n">
-        <v>45</v>
+        <v>140.48</v>
       </c>
       <c r="L64" s="9" t="n">
+        <v>140.48</v>
+      </c>
+      <c r="M64" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N64" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M64" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N64" s="7" t="n">
-        <v>25</v>
-      </c>
       <c r="O64" s="7" t="n">
-        <v>1125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>13-01-2022</t>
-        </is>
-      </c>
-      <c r="B65" s="14" t="inlineStr">
-        <is>
-          <t>13-01-2022</t>
-        </is>
-      </c>
+          <t>25-04-2022</t>
+        </is>
+      </c>
+      <c r="B65" s="19" t="n"/>
       <c r="C65" s="17" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D65" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="D65" s="19" t="n"/>
       <c r="E65" s="17" t="inlineStr">
         <is>
-          <t>Zambang 2-3</t>
-        </is>
-      </c>
-      <c r="F65" s="14" t="inlineStr">
-        <is>
-          <t>Zambang 2-3</t>
-        </is>
-      </c>
+          <t>22EFE01-12</t>
+        </is>
+      </c>
+      <c r="F65" s="19" t="n"/>
       <c r="G65" s="17" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H65" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Classic Mina Cross Cut- Dolgulu&amp;Yarı Cilalı  Düz Kenar 40,6X61,0X1,2 (3554 Adet)</t>
+          <t>Travertine Pavers - Valencia - Fırçalı&amp;Eskitme- 40,6X61,0X3,0</t>
         </is>
       </c>
       <c r="I65" s="17" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>40,6x61,0x3,0</t>
         </is>
       </c>
       <c r="J65" s="17" t="inlineStr">
@@ -4573,67 +4527,55 @@
         </is>
       </c>
       <c r="K65" s="9" t="n">
-        <v>237.25</v>
+        <v>81.89</v>
       </c>
       <c r="L65" s="9" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="M65" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N65" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M65" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N65" s="7" t="n">
-        <v>21</v>
-      </c>
       <c r="O65" s="7" t="n">
-        <v>4982.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>02-12-2021</t>
-        </is>
-      </c>
-      <c r="B66" s="14" t="inlineStr">
-        <is>
-          <t>02-12-2021</t>
-        </is>
-      </c>
+          <t>25-04-2022</t>
+        </is>
+      </c>
+      <c r="B66" s="18" t="n"/>
       <c r="C66" s="17" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D66" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="D66" s="18" t="n"/>
       <c r="E66" s="17" t="inlineStr">
         <is>
-          <t>Wenthworth Place -10</t>
-        </is>
-      </c>
-      <c r="F66" s="14" t="inlineStr">
-        <is>
-          <t>Wenthworth Place -10</t>
-        </is>
-      </c>
+          <t>22EFE01-12</t>
+        </is>
+      </c>
+      <c r="F66" s="18" t="n"/>
       <c r="G66" s="17" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H66" s="17" t="inlineStr">
         <is>
-          <t>Traverten-Mina Rustic Cross Cut -Dolgulu&amp;Yarı Cilalı-40,6X61,0X1,2 (6394 Adet)</t>
+          <t>Travertine Tiles - Valencia - Dolgusuz&amp;Fırçalı&amp;Kenarı Kırık- ANTXPATX1,2</t>
         </is>
       </c>
       <c r="I66" s="17" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="J66" s="17" t="inlineStr">
@@ -4642,10 +4584,10 @@
         </is>
       </c>
       <c r="K66" s="9" t="n">
-        <v>538.39</v>
+        <v>240.84</v>
       </c>
       <c r="L66" s="9" t="n">
-        <v>118.89</v>
+        <v>160.56</v>
       </c>
       <c r="M66" s="17" t="inlineStr">
         <is>
@@ -4653,44 +4595,56 @@
         </is>
       </c>
       <c r="N66" s="7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O66" s="7" t="n">
-        <v>8075.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>02-12-2021</t>
-        </is>
-      </c>
-      <c r="B67" s="18" t="n"/>
+          <t>05-04-2022</t>
+        </is>
+      </c>
+      <c r="B67" s="14" t="inlineStr">
+        <is>
+          <t>05-04-2022</t>
+        </is>
+      </c>
       <c r="C67" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D67" s="18" t="n"/>
+      <c r="D67" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E67" s="17" t="inlineStr">
         <is>
-          <t>Wenthworth Place -10</t>
-        </is>
-      </c>
-      <c r="F67" s="18" t="n"/>
+          <t>Wenthworth Place 02 - 2</t>
+        </is>
+      </c>
+      <c r="F67" s="14" t="inlineStr">
+        <is>
+          <t>Wenthworth Place 02 - 2</t>
+        </is>
+      </c>
       <c r="G67" s="17" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="H67" s="17" t="inlineStr">
         <is>
-          <t>Traverten -Mina Rustic ( Classic Mina ) Cross Cut-Dolgulu&amp;Yarı Cilalı-20,3X40,6X1,2 (3559 Adet)</t>
+          <t>Travertine Tiles - Classic Vein Cut - Dolgulu&amp;Honlu- 30,5X61,0X1,2 (323 Adet)</t>
         </is>
       </c>
       <c r="I67" s="17" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J67" s="17" t="inlineStr">
@@ -4699,10 +4653,10 @@
         </is>
       </c>
       <c r="K67" s="9" t="n">
-        <v>128.49</v>
+        <v>60.09</v>
       </c>
       <c r="L67" s="9" t="n">
-        <v>84.06</v>
+        <v>68.84</v>
       </c>
       <c r="M67" s="17" t="inlineStr">
         <is>
@@ -4710,65 +4664,53 @@
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="O67" s="7" t="n">
-        <v>2055.84</v>
+        <v>1562.34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>23-06-2021</t>
-        </is>
-      </c>
-      <c r="B68" s="14" t="inlineStr">
-        <is>
-          <t>23-06-2021</t>
-        </is>
-      </c>
+          <t>05-04-2022</t>
+        </is>
+      </c>
+      <c r="B68" s="18" t="n"/>
       <c r="C68" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D68" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
+      <c r="D68" s="18" t="n"/>
       <c r="E68" s="17" t="inlineStr">
         <is>
-          <t>Aston Loft-4</t>
-        </is>
-      </c>
-      <c r="F68" s="14" t="inlineStr">
-        <is>
-          <t>Aston Loft-4</t>
-        </is>
-      </c>
+          <t>Wenthworth Place 02 - 2</t>
+        </is>
+      </c>
+      <c r="F68" s="18" t="n"/>
       <c r="G68" s="17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="H68" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Honlu - 30,5x61,0x1,2 ( 16141 Adet)</t>
+          <t xml:space="preserve">Travertine Mosaic - Classic Vein Cut - Dolgulu&amp;Cilalı- 5,0X15,0 (323 Adet) </t>
         </is>
       </c>
       <c r="I68" s="17" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>5,0x15,0x</t>
         </is>
       </c>
       <c r="J68" s="17" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Mek-Moz</t>
         </is>
       </c>
       <c r="K68" s="9" t="n">
-        <v>2768.58</v>
+        <v>30.05</v>
       </c>
       <c r="L68" s="9" t="n">
         <v>0</v>
@@ -4779,44 +4721,56 @@
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="O68" s="7" t="n">
-        <v>42912.99</v>
+        <v>781.3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>23-06-2021</t>
-        </is>
-      </c>
-      <c r="B69" s="18" t="n"/>
+          <t>23-02-2022</t>
+        </is>
+      </c>
+      <c r="B69" s="14" t="inlineStr">
+        <is>
+          <t>23-02-2022</t>
+        </is>
+      </c>
       <c r="C69" s="17" t="inlineStr">
         <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D69" s="18" t="n"/>
+          <t>Bernard Osei - Ghana</t>
+        </is>
+      </c>
+      <c r="D69" s="14" t="inlineStr">
+        <is>
+          <t>Bernard Osei - Ghana</t>
+        </is>
+      </c>
       <c r="E69" s="17" t="inlineStr">
         <is>
-          <t>Aston Loft-4</t>
-        </is>
-      </c>
-      <c r="F69" s="18" t="n"/>
+          <t>22BERNARD01-6</t>
+        </is>
+      </c>
+      <c r="F69" s="14" t="inlineStr">
+        <is>
+          <t>22BERNARD01-6</t>
+        </is>
+      </c>
       <c r="G69" s="17" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="H69" s="17" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Honlu - 15,25x30,5x1,2</t>
+          <t>Travertine Tiles - Silver - Dolgulu&amp;Yarı Cilalı - 40,6X61,0X1,2(2699 adet)</t>
         </is>
       </c>
       <c r="I69" s="17" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="J69" s="17" t="inlineStr">
@@ -4825,10 +4779,10 @@
         </is>
       </c>
       <c r="K69" s="9" t="n">
-        <v>1181</v>
+        <v>454.2</v>
       </c>
       <c r="L69" s="9" t="n">
-        <v>0</v>
+        <v>41.11</v>
       </c>
       <c r="M69" s="17" t="inlineStr">
         <is>
@@ -4836,849 +4790,861 @@
         </is>
       </c>
       <c r="N69" s="7" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="O69" s="7" t="n">
-        <v>18305.5</v>
+        <v>12263.4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>23-02-2022</t>
+        </is>
+      </c>
+      <c r="B70" s="19" t="n"/>
+      <c r="C70" s="17" t="inlineStr">
+        <is>
+          <t>Bernard Osei - Ghana</t>
+        </is>
+      </c>
+      <c r="D70" s="19" t="n"/>
+      <c r="E70" s="17" t="inlineStr">
+        <is>
+          <t>22BERNARD01-6</t>
+        </is>
+      </c>
+      <c r="F70" s="19" t="n"/>
+      <c r="G70" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H70" s="17" t="inlineStr">
+        <is>
+          <t>Travertine Tiles - Silver - Dolgulu&amp;Yarı Cilalı - 30,5X61,0X1,2(2.210 adet)</t>
+        </is>
+      </c>
+      <c r="I70" s="17" t="inlineStr">
+        <is>
+          <t>30,5x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="J70" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K70" s="9" t="n">
+        <v>361.68</v>
+      </c>
+      <c r="L70" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N70" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="O70" s="7" t="n">
+        <v>9403.68</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>23-02-2022</t>
+        </is>
+      </c>
+      <c r="B71" s="19" t="n"/>
+      <c r="C71" s="17" t="inlineStr">
+        <is>
+          <t>Bernard Osei - Ghana</t>
+        </is>
+      </c>
+      <c r="D71" s="19" t="n"/>
+      <c r="E71" s="17" t="inlineStr">
+        <is>
+          <t>22BERNARD01-6</t>
+        </is>
+      </c>
+      <c r="F71" s="19" t="n"/>
+      <c r="G71" s="17" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="H71" s="17" t="inlineStr">
+        <is>
+          <t>Travertine Tiles - Picasso - Dolgulu&amp;Fırçalı&amp;Kenarı Kırık- MiniXPATX1,2</t>
+        </is>
+      </c>
+      <c r="I71" s="17" t="inlineStr">
+        <is>
+          <t>MinixPATx1,2</t>
+        </is>
+      </c>
+      <c r="J71" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K71" s="9" t="n">
+        <v>120.08</v>
+      </c>
+      <c r="L71" s="9" t="n">
+        <v>77.76000000000001</v>
+      </c>
+      <c r="M71" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N71" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="O71" s="7" t="n">
+        <v>2281.52</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>23-02-2022</t>
+        </is>
+      </c>
+      <c r="B72" s="19" t="n"/>
+      <c r="C72" s="17" t="inlineStr">
+        <is>
+          <t>Bernard Osei - Ghana</t>
+        </is>
+      </c>
+      <c r="D72" s="19" t="n"/>
+      <c r="E72" s="17" t="inlineStr">
+        <is>
+          <t>22BERNARD01-6</t>
+        </is>
+      </c>
+      <c r="F72" s="19" t="n"/>
+      <c r="G72" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H72" s="17" t="inlineStr">
+        <is>
+          <t>Travertine Tiles - Silver - Cilalı- 15,25X30,5X1,2(5838 adet)</t>
+        </is>
+      </c>
+      <c r="I72" s="17" t="inlineStr">
+        <is>
+          <t>15,25x30,5x1,2</t>
+        </is>
+      </c>
+      <c r="J72" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K72" s="9" t="n">
+        <v>74.33</v>
+      </c>
+      <c r="L72" s="9" t="n">
+        <v>78.14</v>
+      </c>
+      <c r="M72" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N72" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O72" s="7" t="n">
+        <v>1263.61</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>23-02-2022</t>
+        </is>
+      </c>
+      <c r="B73" s="19" t="n"/>
+      <c r="C73" s="17" t="inlineStr">
+        <is>
+          <t>Bernard Osei - Ghana</t>
+        </is>
+      </c>
+      <c r="D73" s="19" t="n"/>
+      <c r="E73" s="17" t="inlineStr">
+        <is>
+          <t>22BERNARD01-6</t>
+        </is>
+      </c>
+      <c r="F73" s="19" t="n"/>
+      <c r="G73" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H73" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Basamak - Silver - Dolgulu&amp;Yarı Cilalı - 30,0X110,0X2,0 - 3 tane kaymazlık çizgisi açılacak (Mehmet Bey'in odasında örnek var)</t>
+        </is>
+      </c>
+      <c r="I73" s="17" t="inlineStr">
+        <is>
+          <t>30,0x110,0x2,0</t>
+        </is>
+      </c>
+      <c r="J73" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K73" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="L73" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N73" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="O73" s="7" t="n">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>23-02-2022</t>
+        </is>
+      </c>
+      <c r="B74" s="19" t="n"/>
+      <c r="C74" s="17" t="inlineStr">
+        <is>
+          <t>Bernard Osei - Ghana</t>
+        </is>
+      </c>
+      <c r="D74" s="19" t="n"/>
+      <c r="E74" s="17" t="inlineStr">
+        <is>
+          <t>22BERNARD01-6</t>
+        </is>
+      </c>
+      <c r="F74" s="19" t="n"/>
+      <c r="G74" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H74" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Rıht - Silver - Dolgulu&amp;Yarı Cilalı - 16,0X110,0X2,0</t>
+        </is>
+      </c>
+      <c r="I74" s="17" t="inlineStr">
+        <is>
+          <t>16,0x110,0x2,0</t>
+        </is>
+      </c>
+      <c r="J74" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K74" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="L74" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N74" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O74" s="7" t="n">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>23-02-2022</t>
+        </is>
+      </c>
+      <c r="B75" s="18" t="n"/>
+      <c r="C75" s="17" t="inlineStr">
+        <is>
+          <t>Bernard Osei - Ghana</t>
+        </is>
+      </c>
+      <c r="D75" s="18" t="n"/>
+      <c r="E75" s="17" t="inlineStr">
+        <is>
+          <t>22BERNARD01-6</t>
+        </is>
+      </c>
+      <c r="F75" s="18" t="n"/>
+      <c r="G75" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H75" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Sahanlık - Silver - Dolgulu&amp;Yarı Cilalı - 43,0X110,0X2,0</t>
+        </is>
+      </c>
+      <c r="I75" s="17" t="inlineStr">
+        <is>
+          <t>43,0x110,0x2,0</t>
+        </is>
+      </c>
+      <c r="J75" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K75" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="L75" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N75" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="O75" s="7" t="n">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>13-01-2022</t>
+        </is>
+      </c>
+      <c r="B76" s="14" t="inlineStr">
+        <is>
+          <t>13-01-2022</t>
+        </is>
+      </c>
+      <c r="C76" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D76" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="E76" s="17" t="inlineStr">
+        <is>
+          <t>Zambang 2-3</t>
+        </is>
+      </c>
+      <c r="F76" s="14" t="inlineStr">
+        <is>
+          <t>Zambang 2-3</t>
+        </is>
+      </c>
+      <c r="G76" s="17" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="H76" s="17" t="inlineStr">
+        <is>
+          <t>Travertine Tiles - Classic Mina Cross Cut- Dolgulu&amp;Yarı Cilalı  Düz Kenar 40,6X61,0X1,2 (3554 Adet)</t>
+        </is>
+      </c>
+      <c r="I76" s="17" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="J76" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K76" s="9" t="n">
+        <v>276.88</v>
+      </c>
+      <c r="L76" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N76" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="O76" s="7" t="n">
+        <v>5814.48</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>02-12-2021</t>
+        </is>
+      </c>
+      <c r="B77" s="14" t="inlineStr">
+        <is>
+          <t>02-12-2021</t>
+        </is>
+      </c>
+      <c r="C77" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D77" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="E77" s="17" t="inlineStr">
+        <is>
+          <t>Wenthworth Place -10</t>
+        </is>
+      </c>
+      <c r="F77" s="14" t="inlineStr">
+        <is>
+          <t>Wenthworth Place -10</t>
+        </is>
+      </c>
+      <c r="G77" s="17" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="H77" s="17" t="inlineStr">
+        <is>
+          <t>Traverten-Mina Rustic Cross Cut -Dolgulu&amp;Yarı Cilalı-40,6X61,0X1,2 (6394 Adet)</t>
+        </is>
+      </c>
+      <c r="I77" s="17" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="J77" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K77" s="9" t="n">
+        <v>538.39</v>
+      </c>
+      <c r="L77" s="9" t="n">
+        <v>198.15</v>
+      </c>
+      <c r="M77" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N77" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O77" s="7" t="n">
+        <v>8075.85</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>02-12-2021</t>
+        </is>
+      </c>
+      <c r="B78" s="18" t="n"/>
+      <c r="C78" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D78" s="18" t="n"/>
+      <c r="E78" s="17" t="inlineStr">
+        <is>
+          <t>Wenthworth Place -10</t>
+        </is>
+      </c>
+      <c r="F78" s="18" t="n"/>
+      <c r="G78" s="17" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="H78" s="17" t="inlineStr">
+        <is>
+          <t>Traverten -Mina Rustic ( Classic Mina ) Cross Cut-Dolgulu&amp;Yarı Cilalı-20,3X40,6X1,2 (3559 Adet)</t>
+        </is>
+      </c>
+      <c r="I78" s="17" t="inlineStr">
+        <is>
+          <t>20,3x40,6x1,2</t>
+        </is>
+      </c>
+      <c r="J78" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K78" s="9" t="n">
+        <v>128.49</v>
+      </c>
+      <c r="L78" s="9" t="n">
+        <v>126.09</v>
+      </c>
+      <c r="M78" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N78" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="O78" s="7" t="n">
+        <v>2055.84</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>23-06-2021</t>
+        </is>
+      </c>
+      <c r="B79" s="14" t="inlineStr">
+        <is>
+          <t>23-06-2021</t>
+        </is>
+      </c>
+      <c r="C79" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D79" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="E79" s="17" t="inlineStr">
+        <is>
+          <t>Aston Loft-5</t>
+        </is>
+      </c>
+      <c r="F79" s="14" t="inlineStr">
+        <is>
+          <t>Aston Loft-5</t>
+        </is>
+      </c>
+      <c r="G79" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+        </is>
+      </c>
+      <c r="H79" s="17" t="inlineStr">
+        <is>
+          <t>Travertine Tiles - Mina Rustic Vein Cut  - Dolgulu&amp;Honlu - 30,5x61,0x1,2 ( 16141 Adet)</t>
+        </is>
+      </c>
+      <c r="I79" s="17" t="inlineStr">
+        <is>
+          <t>30,5x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="J79" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K79" s="9" t="n">
+        <v>1596.46</v>
+      </c>
+      <c r="L79" s="9" t="n">
+        <v>1172.1</v>
+      </c>
+      <c r="M79" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N79" s="7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="O79" s="7" t="n">
+        <v>24745.13</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>23-06-2021</t>
+        </is>
+      </c>
+      <c r="B80" s="18" t="n"/>
+      <c r="C80" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D80" s="18" t="n"/>
+      <c r="E80" s="17" t="inlineStr">
+        <is>
+          <t>Aston Loft-5</t>
+        </is>
+      </c>
+      <c r="F80" s="18" t="n"/>
+      <c r="G80" s="17" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="H80" s="17" t="inlineStr">
+        <is>
+          <t>Travertine Tiles - Picasso Ivory - Dolgulu&amp;Honlu - 15,25x30,5x1,2</t>
+        </is>
+      </c>
+      <c r="I80" s="17" t="inlineStr">
+        <is>
+          <t>15,25x30,5x1,2</t>
+        </is>
+      </c>
+      <c r="J80" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K80" s="9" t="n">
+        <v>1181</v>
+      </c>
+      <c r="L80" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" s="17" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="N80" s="7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="O80" s="7" t="n">
+        <v>18305.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>02-03-2021</t>
         </is>
       </c>
-      <c r="B70" s="14" t="inlineStr">
+      <c r="B81" s="14" t="inlineStr">
         <is>
           <t>02-03-2021</t>
         </is>
       </c>
-      <c r="C70" s="17" t="inlineStr">
+      <c r="C81" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D70" s="14" t="inlineStr">
+      <c r="D81" s="14" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="E70" s="17" t="inlineStr">
+      <c r="E81" s="17" t="inlineStr">
         <is>
           <t>Katmor Gardens (Extra)-3</t>
         </is>
       </c>
-      <c r="F70" s="14" t="inlineStr">
+      <c r="F81" s="14" t="inlineStr">
         <is>
           <t>Katmor Gardens (Extra)-3</t>
         </is>
       </c>
-      <c r="G70" s="17" t="inlineStr">
+      <c r="G81" s="17" t="inlineStr">
         <is>
           <t>Picasso Ivory</t>
         </is>
       </c>
-      <c r="H70" s="17" t="inlineStr">
+      <c r="H81" s="17" t="inlineStr">
         <is>
           <t>Travertine Tiles - Picasso Philedelphia
 Dolgulu&amp; Yarı Cilalı &amp; Duz Kenar
 15,25 x 30,5 x1,2 (300 Adet)</t>
         </is>
       </c>
-      <c r="I70" s="17" t="inlineStr">
+      <c r="I81" s="17" t="inlineStr">
         <is>
           <t>15,25x30,5x1,2</t>
         </is>
       </c>
-      <c r="J70" s="17" t="inlineStr">
+      <c r="J81" s="17" t="inlineStr">
         <is>
           <t>Mekmer</t>
         </is>
       </c>
-      <c r="K70" s="9" t="n">
+      <c r="K81" s="9" t="n">
         <v>13.95</v>
       </c>
-      <c r="L70" s="9" t="n">
+      <c r="L81" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M70" s="17" t="inlineStr">
+      <c r="M81" s="17" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="N70" s="7" t="n">
+      <c r="N81" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="O70" s="7" t="n">
+      <c r="O81" s="7" t="n">
         <v>209.25</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>01-03-2021</t>
         </is>
       </c>
-      <c r="B71" s="14" t="inlineStr">
+      <c r="B82" s="14" t="inlineStr">
         <is>
           <t>01-03-2021</t>
         </is>
       </c>
-      <c r="C71" s="17" t="inlineStr">
+      <c r="C82" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D71" s="14" t="inlineStr">
+      <c r="D82" s="14" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="E71" s="17" t="inlineStr">
+      <c r="E82" s="17" t="inlineStr">
         <is>
           <t>Pool Tiles-3</t>
         </is>
       </c>
-      <c r="F71" s="14" t="inlineStr">
+      <c r="F82" s="14" t="inlineStr">
         <is>
           <t>Pool Tiles-3</t>
         </is>
       </c>
-      <c r="G71" s="17" t="inlineStr">
+      <c r="G82" s="17" t="inlineStr">
         <is>
           <t>Volcano</t>
         </is>
       </c>
-      <c r="H71" s="17" t="inlineStr">
+      <c r="H82" s="17" t="inlineStr">
         <is>
           <t>Travertine Tiles -Volcano Cross Cut -
 Dolgulu&amp; Fırçalı&amp; Kenarı Kırık
 40,6x61x1,2 (2443 Adet)</t>
         </is>
       </c>
-      <c r="I71" s="17" t="inlineStr">
+      <c r="I82" s="17" t="inlineStr">
         <is>
           <t>40,6x61,0x1,2</t>
         </is>
       </c>
-      <c r="J71" s="17" t="inlineStr">
+      <c r="J82" s="17" t="inlineStr">
         <is>
           <t>Mekmer</t>
         </is>
       </c>
-      <c r="K71" s="9" t="n">
+      <c r="K82" s="9" t="n">
         <v>605</v>
-      </c>
-      <c r="L71" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N71" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="O71" s="7" t="n">
-        <v>12705</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>01-07-2020</t>
-        </is>
-      </c>
-      <c r="B72" s="14" t="inlineStr">
-        <is>
-          <t>01-07-2020</t>
-        </is>
-      </c>
-      <c r="C72" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D72" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="E72" s="17" t="inlineStr">
-        <is>
-          <t>Imperial Zambang Chalets</t>
-        </is>
-      </c>
-      <c r="F72" s="14" t="inlineStr">
-        <is>
-          <t>Imperial Zambang Chalets</t>
-        </is>
-      </c>
-      <c r="G72" s="17" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="H72" s="17" t="inlineStr">
-        <is>
-          <t>Traverten classic vein cut yarı cilalı (724 Adet)</t>
-        </is>
-      </c>
-      <c r="I72" s="17" t="inlineStr">
-        <is>
-          <t>40,6x61,0x2,0</t>
-        </is>
-      </c>
-      <c r="J72" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K72" s="9" t="n">
-        <v>179.31</v>
-      </c>
-      <c r="L72" s="9" t="n">
-        <v>24.77</v>
-      </c>
-      <c r="M72" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N72" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="O72" s="7" t="n">
-        <v>4482.63</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>01-07-2020</t>
-        </is>
-      </c>
-      <c r="B73" s="19" t="n"/>
-      <c r="C73" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D73" s="19" t="n"/>
-      <c r="E73" s="17" t="inlineStr">
-        <is>
-          <t>Imperial Zambang Chalets</t>
-        </is>
-      </c>
-      <c r="F73" s="19" t="n"/>
-      <c r="G73" s="17" t="inlineStr">
-        <is>
-          <t>Volcano</t>
-        </is>
-      </c>
-      <c r="H73" s="17" t="inlineStr">
-        <is>
-          <t>traverten volcano pattern set yarı cilalı</t>
-        </is>
-      </c>
-      <c r="I73" s="17" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
-      <c r="J73" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K73" s="9" t="n">
-        <v>159.4</v>
-      </c>
-      <c r="L73" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N73" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="O73" s="7" t="n">
-        <v>2869.2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>01-07-2020</t>
-        </is>
-      </c>
-      <c r="B74" s="19" t="n"/>
-      <c r="C74" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D74" s="19" t="n"/>
-      <c r="E74" s="17" t="inlineStr">
-        <is>
-          <t>Imperial Zambang Chalets</t>
-        </is>
-      </c>
-      <c r="F74" s="19" t="n"/>
-      <c r="G74" s="17" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="H74" s="17" t="inlineStr">
-        <is>
-          <t>traverten classic vein cut yarı cilalı (982 Adet)</t>
-        </is>
-      </c>
-      <c r="I74" s="17" t="inlineStr">
-        <is>
-          <t>15,25x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J74" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K74" s="9" t="n">
-        <v>91.34999999999999</v>
-      </c>
-      <c r="L74" s="9" t="n">
-        <v>122.79</v>
-      </c>
-      <c r="M74" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N74" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="O74" s="7" t="n">
-        <v>1644.3</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>01-07-2020</t>
-        </is>
-      </c>
-      <c r="B75" s="19" t="n"/>
-      <c r="C75" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D75" s="19" t="n"/>
-      <c r="E75" s="17" t="inlineStr">
-        <is>
-          <t>Imperial Zambang Chalets</t>
-        </is>
-      </c>
-      <c r="F75" s="19" t="n"/>
-      <c r="G75" s="17" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="H75" s="17" t="inlineStr">
-        <is>
-          <t>traverten basamak classic mina yarı cilalı</t>
-        </is>
-      </c>
-      <c r="I75" s="17" t="inlineStr">
-        <is>
-          <t>30,0x125,0x3,0</t>
-        </is>
-      </c>
-      <c r="J75" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K75" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L75" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N75" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="O75" s="7" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>01-07-2020</t>
-        </is>
-      </c>
-      <c r="B76" s="18" t="n"/>
-      <c r="C76" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D76" s="18" t="n"/>
-      <c r="E76" s="17" t="inlineStr">
-        <is>
-          <t>Imperial Zambang Chalets</t>
-        </is>
-      </c>
-      <c r="F76" s="18" t="n"/>
-      <c r="G76" s="17" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="H76" s="17" t="inlineStr">
-        <is>
-          <t>traverten rıht classic mina yarı cilalı</t>
-        </is>
-      </c>
-      <c r="I76" s="17" t="inlineStr">
-        <is>
-          <t>15,0x125,0x3,0</t>
-        </is>
-      </c>
-      <c r="J76" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K76" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="L76" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N76" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="O76" s="7" t="n">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>25-02-2019</t>
-        </is>
-      </c>
-      <c r="B77" s="14" t="inlineStr">
-        <is>
-          <t>25-02-2019</t>
-        </is>
-      </c>
-      <c r="C77" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D77" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="E77" s="17" t="inlineStr">
-        <is>
-          <t>Rangoon Apatment - 2</t>
-        </is>
-      </c>
-      <c r="F77" s="14" t="inlineStr">
-        <is>
-          <t>Rangoon Apatment - 2</t>
-        </is>
-      </c>
-      <c r="G77" s="17" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="H77" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Picasso Dolgulu Honlu</t>
-        </is>
-      </c>
-      <c r="I77" s="17" t="inlineStr">
-        <is>
-          <t>40,6x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J77" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K77" s="9" t="n">
-        <v>76.08</v>
-      </c>
-      <c r="L77" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N77" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="O77" s="7" t="n">
-        <v>1673.76</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>13-02-2019</t>
-        </is>
-      </c>
-      <c r="B78" s="14" t="inlineStr">
-        <is>
-          <t>13-02-2019</t>
-        </is>
-      </c>
-      <c r="C78" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D78" s="14" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="E78" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F78" s="14" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="G78" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H78" s="17" t="inlineStr">
-        <is>
-          <t>Travertine Tile Silver Dolgulu Cilalı</t>
-        </is>
-      </c>
-      <c r="I78" s="17" t="inlineStr">
-        <is>
-          <t>30,5x61,0x1,2</t>
-        </is>
-      </c>
-      <c r="J78" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K78" s="9" t="n">
-        <v>2195</v>
-      </c>
-      <c r="L78" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N78" s="7" t="n">
-        <v>24</v>
-      </c>
-      <c r="O78" s="7" t="n">
-        <v>52680</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>13-02-2019</t>
-        </is>
-      </c>
-      <c r="B79" s="19" t="n"/>
-      <c r="C79" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D79" s="19" t="n"/>
-      <c r="E79" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F79" s="19" t="n"/>
-      <c r="G79" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H79" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Silver Cilalı</t>
-        </is>
-      </c>
-      <c r="I79" s="17" t="inlineStr">
-        <is>
-          <t>20,3x40,6x1,2</t>
-        </is>
-      </c>
-      <c r="J79" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K79" s="9" t="n">
-        <v>485</v>
-      </c>
-      <c r="L79" s="9" t="n">
-        <v>128.58</v>
-      </c>
-      <c r="M79" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N79" s="7" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="O79" s="7" t="n">
-        <v>12367.5</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>13-02-2019</t>
-        </is>
-      </c>
-      <c r="B80" s="19" t="n"/>
-      <c r="C80" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D80" s="19" t="n"/>
-      <c r="E80" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F80" s="19" t="n"/>
-      <c r="G80" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H80" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Mosaic Silver Cilalı</t>
-        </is>
-      </c>
-      <c r="I80" s="17" t="inlineStr">
-        <is>
-          <t>5,0x15,0x</t>
-        </is>
-      </c>
-      <c r="J80" s="17" t="inlineStr">
-        <is>
-          <t>Mek-Moz</t>
-        </is>
-      </c>
-      <c r="K80" s="9" t="n">
-        <v>230</v>
-      </c>
-      <c r="L80" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" s="17" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="N80" s="7" t="n">
-        <v>34</v>
-      </c>
-      <c r="O80" s="7" t="n">
-        <v>7820</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>13-02-2019</t>
-        </is>
-      </c>
-      <c r="B81" s="19" t="n"/>
-      <c r="C81" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D81" s="19" t="n"/>
-      <c r="E81" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F81" s="19" t="n"/>
-      <c r="G81" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H81" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Silver Basamak Cilalı</t>
-        </is>
-      </c>
-      <c r="I81" s="17" t="inlineStr">
-        <is>
-          <t>100,0x190,0x2,0</t>
-        </is>
-      </c>
-      <c r="J81" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K81" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="L81" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" s="17" t="inlineStr">
-        <is>
-          <t>Adet</t>
-        </is>
-      </c>
-      <c r="N81" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="O81" s="7" t="n">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>13-02-2019</t>
-        </is>
-      </c>
-      <c r="B82" s="19" t="n"/>
-      <c r="C82" s="17" t="inlineStr">
-        <is>
-          <t>Francis-Ghana</t>
-        </is>
-      </c>
-      <c r="D82" s="19" t="n"/>
-      <c r="E82" s="17" t="inlineStr">
-        <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F82" s="19" t="n"/>
-      <c r="G82" s="17" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="H82" s="17" t="inlineStr">
-        <is>
-          <t>Traverten Rıht Silver Cilalı</t>
-        </is>
-      </c>
-      <c r="I82" s="17" t="inlineStr">
-        <is>
-          <t>15,0x170,0x2,0</t>
-        </is>
-      </c>
-      <c r="J82" s="17" t="inlineStr">
-        <is>
-          <t>Mekmer</t>
-        </is>
-      </c>
-      <c r="K82" s="9" t="n">
-        <v>60</v>
       </c>
       <c r="L82" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M82" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
         <v>21</v>
       </c>
       <c r="O82" s="7" t="n">
-        <v>1260</v>
+        <v>12705</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>13-02-2019</t>
-        </is>
-      </c>
-      <c r="B83" s="19" t="n"/>
+          <t>01-07-2020</t>
+        </is>
+      </c>
+      <c r="B83" s="14" t="inlineStr">
+        <is>
+          <t>01-07-2020</t>
+        </is>
+      </c>
       <c r="C83" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D83" s="19" t="n"/>
+      <c r="D83" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E83" s="17" t="inlineStr">
         <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F83" s="19" t="n"/>
+          <t>Imperial Zambang Chalets</t>
+        </is>
+      </c>
+      <c r="F83" s="14" t="inlineStr">
+        <is>
+          <t>Imperial Zambang Chalets</t>
+        </is>
+      </c>
       <c r="G83" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="H83" s="17" t="inlineStr">
         <is>
-          <t>Traverten Basamak Silver Cilalı Pahlı</t>
+          <t>Traverten classic vein cut yarı cilalı (724 Adet)</t>
         </is>
       </c>
       <c r="I83" s="17" t="inlineStr">
         <is>
-          <t>30,0x129,0x2,0</t>
+          <t>40,6x61,0x2,0</t>
         </is>
       </c>
       <c r="J83" s="17" t="inlineStr">
@@ -5687,27 +5653,27 @@
         </is>
       </c>
       <c r="K83" s="9" t="n">
-        <v>40</v>
+        <v>179.31</v>
       </c>
       <c r="L83" s="9" t="n">
-        <v>0</v>
+        <v>24.77</v>
       </c>
       <c r="M83" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O83" s="7" t="n">
-        <v>960</v>
+        <v>4482.63</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>13-02-2019</t>
+          <t>01-07-2020</t>
         </is>
       </c>
       <c r="B84" s="19" t="n"/>
@@ -5719,23 +5685,23 @@
       <c r="D84" s="19" t="n"/>
       <c r="E84" s="17" t="inlineStr">
         <is>
-          <t>Lincoln Court</t>
+          <t>Imperial Zambang Chalets</t>
         </is>
       </c>
       <c r="F84" s="19" t="n"/>
       <c r="G84" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Volcano</t>
         </is>
       </c>
       <c r="H84" s="17" t="inlineStr">
         <is>
-          <t>Traverten Rıht Silver Cilalı Pahlı</t>
+          <t>traverten volcano pattern set yarı cilalı</t>
         </is>
       </c>
       <c r="I84" s="17" t="inlineStr">
         <is>
-          <t>20,0x129,0x2,0</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="J84" s="17" t="inlineStr">
@@ -5744,27 +5710,27 @@
         </is>
       </c>
       <c r="K84" s="9" t="n">
-        <v>40</v>
+        <v>159.4</v>
       </c>
       <c r="L84" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M84" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O84" s="7" t="n">
-        <v>640</v>
+        <v>2869.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>13-02-2019</t>
+          <t>01-07-2020</t>
         </is>
       </c>
       <c r="B85" s="19" t="n"/>
@@ -5776,23 +5742,23 @@
       <c r="D85" s="19" t="n"/>
       <c r="E85" s="17" t="inlineStr">
         <is>
-          <t>Lincoln Court</t>
+          <t>Imperial Zambang Chalets</t>
         </is>
       </c>
       <c r="F85" s="19" t="n"/>
       <c r="G85" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="H85" s="17" t="inlineStr">
         <is>
-          <t>Traverten Basamak Silver Cilalı Pahlı</t>
+          <t>traverten classic vein cut yarı cilalı (982 Adet)</t>
         </is>
       </c>
       <c r="I85" s="17" t="inlineStr">
         <is>
-          <t>33,0x126,0x2,0</t>
+          <t>15,25x61,0x1,2</t>
         </is>
       </c>
       <c r="J85" s="17" t="inlineStr">
@@ -5801,27 +5767,27 @@
         </is>
       </c>
       <c r="K85" s="9" t="n">
-        <v>40</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="L85" s="9" t="n">
-        <v>0</v>
+        <v>122.79</v>
       </c>
       <c r="M85" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="O85" s="7" t="n">
-        <v>1160</v>
+        <v>1644.3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>13-02-2019</t>
+          <t>01-07-2020</t>
         </is>
       </c>
       <c r="B86" s="19" t="n"/>
@@ -5833,23 +5799,23 @@
       <c r="D86" s="19" t="n"/>
       <c r="E86" s="17" t="inlineStr">
         <is>
-          <t>Lincoln Court</t>
+          <t>Imperial Zambang Chalets</t>
         </is>
       </c>
       <c r="F86" s="19" t="n"/>
       <c r="G86" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H86" s="17" t="inlineStr">
         <is>
-          <t>Traverten Rıht Silver Cilalı Pahlı</t>
+          <t>traverten basamak classic mina yarı cilalı</t>
         </is>
       </c>
       <c r="I86" s="17" t="inlineStr">
         <is>
-          <t>22,0x126,0x2,0</t>
+          <t>30,0x125,0x3,0</t>
         </is>
       </c>
       <c r="J86" s="17" t="inlineStr">
@@ -5858,7 +5824,7 @@
         </is>
       </c>
       <c r="K86" s="9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L86" s="9" t="n">
         <v>0</v>
@@ -5869,44 +5835,44 @@
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O86" s="7" t="n">
-        <v>760</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>13-02-2019</t>
-        </is>
-      </c>
-      <c r="B87" s="19" t="n"/>
+          <t>01-07-2020</t>
+        </is>
+      </c>
+      <c r="B87" s="18" t="n"/>
       <c r="C87" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D87" s="19" t="n"/>
+      <c r="D87" s="18" t="n"/>
       <c r="E87" s="17" t="inlineStr">
         <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F87" s="19" t="n"/>
+          <t>Imperial Zambang Chalets</t>
+        </is>
+      </c>
+      <c r="F87" s="18" t="n"/>
       <c r="G87" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="H87" s="17" t="inlineStr">
         <is>
-          <t>Traverten Basamak Silver Cilalı Pahlı</t>
+          <t>traverten rıht classic mina yarı cilalı</t>
         </is>
       </c>
       <c r="I87" s="17" t="inlineStr">
         <is>
-          <t>33,0x127,0x2,0</t>
+          <t>15,0x125,0x3,0</t>
         </is>
       </c>
       <c r="J87" s="17" t="inlineStr">
@@ -5915,7 +5881,7 @@
         </is>
       </c>
       <c r="K87" s="9" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="L87" s="9" t="n">
         <v>0</v>
@@ -5926,44 +5892,56 @@
         </is>
       </c>
       <c r="N87" s="7" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="O87" s="7" t="n">
-        <v>1160</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>13-02-2019</t>
-        </is>
-      </c>
-      <c r="B88" s="19" t="n"/>
+          <t>25-02-2019</t>
+        </is>
+      </c>
+      <c r="B88" s="14" t="inlineStr">
+        <is>
+          <t>25-02-2019</t>
+        </is>
+      </c>
       <c r="C88" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D88" s="19" t="n"/>
+      <c r="D88" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E88" s="17" t="inlineStr">
         <is>
-          <t>Lincoln Court</t>
-        </is>
-      </c>
-      <c r="F88" s="19" t="n"/>
+          <t>Rangoon Apatment - 2</t>
+        </is>
+      </c>
+      <c r="F88" s="14" t="inlineStr">
+        <is>
+          <t>Rangoon Apatment - 2</t>
+        </is>
+      </c>
       <c r="G88" s="17" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="H88" s="17" t="inlineStr">
         <is>
-          <t>Traverten Rıht Silver Cilalı Pahlı</t>
+          <t>Traverten Picasso Dolgulu Honlu</t>
         </is>
       </c>
       <c r="I88" s="17" t="inlineStr">
         <is>
-          <t>15,0x125,0x2,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="J88" s="17" t="inlineStr">
@@ -5972,21 +5950,21 @@
         </is>
       </c>
       <c r="K88" s="9" t="n">
-        <v>40</v>
+        <v>76.08</v>
       </c>
       <c r="L88" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M88" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N88" s="7" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="O88" s="7" t="n">
-        <v>600</v>
+        <v>1673.76</v>
       </c>
     </row>
     <row r="89">
@@ -5995,19 +5973,31 @@
           <t>13-02-2019</t>
         </is>
       </c>
-      <c r="B89" s="19" t="n"/>
+      <c r="B89" s="14" t="inlineStr">
+        <is>
+          <t>13-02-2019</t>
+        </is>
+      </c>
       <c r="C89" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D89" s="19" t="n"/>
+      <c r="D89" s="14" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
       <c r="E89" s="17" t="inlineStr">
         <is>
           <t>Lincoln Court</t>
         </is>
       </c>
-      <c r="F89" s="19" t="n"/>
+      <c r="F89" s="14" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
       <c r="G89" s="17" t="inlineStr">
         <is>
           <t>Silver Grey</t>
@@ -6015,12 +6005,12 @@
       </c>
       <c r="H89" s="17" t="inlineStr">
         <is>
-          <t>Traverten Basamak Silver Cilalı Pahlı</t>
+          <t>Travertine Tile Silver Dolgulu Cilalı</t>
         </is>
       </c>
       <c r="I89" s="17" t="inlineStr">
         <is>
-          <t>33,0x120,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="J89" s="17" t="inlineStr">
@@ -6029,21 +6019,21 @@
         </is>
       </c>
       <c r="K89" s="9" t="n">
-        <v>80</v>
+        <v>2195</v>
       </c>
       <c r="L89" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M89" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N89" s="7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O89" s="7" t="n">
-        <v>2080</v>
+        <v>52680</v>
       </c>
     </row>
     <row r="90">
@@ -6072,12 +6062,12 @@
       </c>
       <c r="H90" s="17" t="inlineStr">
         <is>
-          <t>Traverten Rıht Silver Cilalı Pahlı</t>
+          <t>Traverten Silver Cilalı</t>
         </is>
       </c>
       <c r="I90" s="17" t="inlineStr">
         <is>
-          <t>18,0x120,0x2,0</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="J90" s="17" t="inlineStr">
@@ -6086,21 +6076,21 @@
         </is>
       </c>
       <c r="K90" s="9" t="n">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="L90" s="9" t="n">
-        <v>0</v>
+        <v>128.58</v>
       </c>
       <c r="M90" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N90" s="7" t="n">
-        <v>13</v>
+        <v>25.5</v>
       </c>
       <c r="O90" s="7" t="n">
-        <v>1040</v>
+        <v>12367.5</v>
       </c>
     </row>
     <row r="91">
@@ -6129,35 +6119,35 @@
       </c>
       <c r="H91" s="17" t="inlineStr">
         <is>
-          <t>Traverten Basamak Silver Cilalı Pahlı</t>
+          <t>Traverten Mosaic Silver Cilalı</t>
         </is>
       </c>
       <c r="I91" s="17" t="inlineStr">
         <is>
-          <t>33,0x115,0x2,0</t>
+          <t>5,0x15,0x</t>
         </is>
       </c>
       <c r="J91" s="17" t="inlineStr">
         <is>
-          <t>Mekmer</t>
+          <t>Mek-Moz</t>
         </is>
       </c>
       <c r="K91" s="9" t="n">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="L91" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M91" s="17" t="inlineStr">
         <is>
-          <t>Adet</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="N91" s="7" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O91" s="7" t="n">
-        <v>1000</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="92">
@@ -6166,19 +6156,19 @@
           <t>13-02-2019</t>
         </is>
       </c>
-      <c r="B92" s="18" t="n"/>
+      <c r="B92" s="19" t="n"/>
       <c r="C92" s="17" t="inlineStr">
         <is>
           <t>Francis-Ghana</t>
         </is>
       </c>
-      <c r="D92" s="18" t="n"/>
+      <c r="D92" s="19" t="n"/>
       <c r="E92" s="17" t="inlineStr">
         <is>
           <t>Lincoln Court</t>
         </is>
       </c>
-      <c r="F92" s="18" t="n"/>
+      <c r="F92" s="19" t="n"/>
       <c r="G92" s="17" t="inlineStr">
         <is>
           <t>Silver Grey</t>
@@ -6186,12 +6176,12 @@
       </c>
       <c r="H92" s="17" t="inlineStr">
         <is>
-          <t>Traverten Rıht Silver Cilalı Pahlı</t>
+          <t>Traverten Silver Basamak Cilalı</t>
         </is>
       </c>
       <c r="I92" s="17" t="inlineStr">
         <is>
-          <t>20,0x115,0x2,0</t>
+          <t>100,0x190,0x2,0</t>
         </is>
       </c>
       <c r="J92" s="17" t="inlineStr">
@@ -6200,7 +6190,7 @@
         </is>
       </c>
       <c r="K92" s="9" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="L92" s="9" t="n">
         <v>0</v>
@@ -6211,187 +6201,638 @@
         </is>
       </c>
       <c r="N92" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="O92" s="7" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>13-02-2019</t>
+        </is>
+      </c>
+      <c r="B93" s="19" t="n"/>
+      <c r="C93" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D93" s="19" t="n"/>
+      <c r="E93" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F93" s="19" t="n"/>
+      <c r="G93" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H93" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Rıht Silver Cilalı</t>
+        </is>
+      </c>
+      <c r="I93" s="17" t="inlineStr">
+        <is>
+          <t>15,0x170,0x2,0</t>
+        </is>
+      </c>
+      <c r="J93" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K93" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="L93" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N93" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="O93" s="7" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>13-02-2019</t>
+        </is>
+      </c>
+      <c r="B94" s="19" t="n"/>
+      <c r="C94" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D94" s="19" t="n"/>
+      <c r="E94" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F94" s="19" t="n"/>
+      <c r="G94" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H94" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Basamak Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I94" s="17" t="inlineStr">
+        <is>
+          <t>30,0x129,0x2,0</t>
+        </is>
+      </c>
+      <c r="J94" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K94" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L94" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N94" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="O94" s="7" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>13-02-2019</t>
+        </is>
+      </c>
+      <c r="B95" s="19" t="n"/>
+      <c r="C95" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D95" s="19" t="n"/>
+      <c r="E95" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F95" s="19" t="n"/>
+      <c r="G95" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H95" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Rıht Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I95" s="17" t="inlineStr">
+        <is>
+          <t>20,0x129,0x2,0</t>
+        </is>
+      </c>
+      <c r="J95" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K95" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L95" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N95" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="O95" s="7" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>13-02-2019</t>
+        </is>
+      </c>
+      <c r="B96" s="19" t="n"/>
+      <c r="C96" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D96" s="19" t="n"/>
+      <c r="E96" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F96" s="19" t="n"/>
+      <c r="G96" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H96" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Basamak Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I96" s="17" t="inlineStr">
+        <is>
+          <t>33,0x126,0x2,0</t>
+        </is>
+      </c>
+      <c r="J96" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K96" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L96" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N96" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="O96" s="7" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>13-02-2019</t>
+        </is>
+      </c>
+      <c r="B97" s="19" t="n"/>
+      <c r="C97" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D97" s="19" t="n"/>
+      <c r="E97" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F97" s="19" t="n"/>
+      <c r="G97" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H97" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Rıht Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I97" s="17" t="inlineStr">
+        <is>
+          <t>22,0x126,0x2,0</t>
+        </is>
+      </c>
+      <c r="J97" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K97" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N97" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="O97" s="7" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>13-02-2019</t>
+        </is>
+      </c>
+      <c r="B98" s="19" t="n"/>
+      <c r="C98" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D98" s="19" t="n"/>
+      <c r="E98" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F98" s="19" t="n"/>
+      <c r="G98" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H98" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Basamak Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I98" s="17" t="inlineStr">
+        <is>
+          <t>33,0x127,0x2,0</t>
+        </is>
+      </c>
+      <c r="J98" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K98" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L98" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N98" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="O98" s="7" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>13-02-2019</t>
+        </is>
+      </c>
+      <c r="B99" s="19" t="n"/>
+      <c r="C99" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D99" s="19" t="n"/>
+      <c r="E99" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F99" s="19" t="n"/>
+      <c r="G99" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H99" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Rıht Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I99" s="17" t="inlineStr">
+        <is>
+          <t>15,0x125,0x2,0</t>
+        </is>
+      </c>
+      <c r="J99" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K99" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L99" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N99" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="O92" s="7" t="n">
+      <c r="O99" s="7" t="n">
         <v>600</v>
       </c>
     </row>
-    <row r="93">
-      <c r="B93" s="17" t="n"/>
-      <c r="C93" s="17" t="n"/>
-      <c r="D93" s="17" t="n"/>
-      <c r="E93" s="17" t="n"/>
-      <c r="F93" s="17" t="n"/>
-      <c r="G93" s="17" t="n"/>
-      <c r="H93" s="17" t="n"/>
-      <c r="I93" s="17" t="n"/>
-      <c r="J93" s="17" t="n"/>
-      <c r="K93" s="9" t="n"/>
-      <c r="L93" s="9" t="n"/>
-      <c r="M93" s="17" t="n"/>
-      <c r="N93" s="7" t="n"/>
-      <c r="O93" s="7" t="n"/>
-    </row>
-    <row r="94">
-      <c r="B94" s="17" t="n"/>
-      <c r="C94" s="17" t="n"/>
-      <c r="D94" s="17" t="n"/>
-      <c r="E94" s="17" t="n"/>
-      <c r="F94" s="17" t="n"/>
-      <c r="G94" s="17" t="n"/>
-      <c r="H94" s="17" t="n"/>
-      <c r="I94" s="17" t="n"/>
-      <c r="J94" s="17" t="n"/>
-      <c r="K94" s="9" t="n"/>
-      <c r="L94" s="9" t="n"/>
-      <c r="M94" s="17" t="n"/>
-      <c r="N94" s="7" t="n"/>
-      <c r="O94" s="7" t="n"/>
-    </row>
-    <row r="95">
-      <c r="B95" s="17" t="n"/>
-      <c r="C95" s="17" t="n"/>
-      <c r="D95" s="17" t="n"/>
-      <c r="E95" s="17" t="n"/>
-      <c r="F95" s="17" t="n"/>
-      <c r="G95" s="17" t="n"/>
-      <c r="H95" s="17" t="n"/>
-      <c r="I95" s="17" t="n"/>
-      <c r="J95" s="17" t="n"/>
-      <c r="K95" s="9" t="n"/>
-      <c r="L95" s="9" t="n"/>
-      <c r="M95" s="17" t="n"/>
-      <c r="N95" s="7" t="n"/>
-      <c r="O95" s="7" t="n"/>
-    </row>
-    <row r="96">
-      <c r="B96" s="17" t="n"/>
-      <c r="C96" s="17" t="n"/>
-      <c r="D96" s="17" t="n"/>
-      <c r="E96" s="17" t="n"/>
-      <c r="F96" s="17" t="n"/>
-      <c r="G96" s="17" t="n"/>
-      <c r="H96" s="17" t="n"/>
-      <c r="I96" s="17" t="n"/>
-      <c r="J96" s="17" t="n"/>
-      <c r="K96" s="9" t="n"/>
-      <c r="L96" s="9" t="n"/>
-      <c r="M96" s="17" t="n"/>
-      <c r="N96" s="7" t="n"/>
-      <c r="O96" s="7" t="n"/>
-    </row>
-    <row r="97">
-      <c r="B97" s="17" t="n"/>
-      <c r="C97" s="17" t="n"/>
-      <c r="D97" s="17" t="n"/>
-      <c r="E97" s="17" t="n"/>
-      <c r="F97" s="17" t="n"/>
-      <c r="G97" s="17" t="n"/>
-      <c r="H97" s="17" t="n"/>
-      <c r="I97" s="17" t="n"/>
-      <c r="J97" s="17" t="n"/>
-      <c r="K97" s="9" t="n"/>
-      <c r="L97" s="9" t="n"/>
-      <c r="M97" s="17" t="n"/>
-      <c r="N97" s="7" t="n"/>
-      <c r="O97" s="7" t="n"/>
-    </row>
-    <row r="98">
-      <c r="B98" s="17" t="n"/>
-      <c r="C98" s="17" t="n"/>
-      <c r="D98" s="17" t="n"/>
-      <c r="E98" s="17" t="n"/>
-      <c r="F98" s="17" t="n"/>
-      <c r="G98" s="17" t="n"/>
-      <c r="H98" s="17" t="n"/>
-      <c r="I98" s="17" t="n"/>
-      <c r="J98" s="17" t="n"/>
-      <c r="K98" s="9" t="n"/>
-      <c r="L98" s="9" t="n"/>
-      <c r="M98" s="17" t="n"/>
-      <c r="N98" s="7" t="n"/>
-      <c r="O98" s="7" t="n"/>
-    </row>
-    <row r="99">
-      <c r="B99" s="17" t="n"/>
-      <c r="C99" s="17" t="n"/>
-      <c r="D99" s="17" t="n"/>
-      <c r="E99" s="17" t="n"/>
-      <c r="F99" s="17" t="n"/>
-      <c r="G99" s="17" t="n"/>
-      <c r="H99" s="17" t="n"/>
-      <c r="I99" s="17" t="n"/>
-      <c r="J99" s="17" t="n"/>
-      <c r="K99" s="9" t="n"/>
-      <c r="L99" s="9" t="n"/>
-      <c r="M99" s="17" t="n"/>
-      <c r="N99" s="7" t="n"/>
-      <c r="O99" s="7" t="n"/>
-    </row>
     <row r="100">
-      <c r="B100" s="17" t="n"/>
-      <c r="C100" s="17" t="n"/>
-      <c r="D100" s="17" t="n"/>
-      <c r="E100" s="17" t="n"/>
-      <c r="F100" s="17" t="n"/>
-      <c r="G100" s="17" t="n"/>
-      <c r="H100" s="17" t="n"/>
-      <c r="I100" s="17" t="n"/>
-      <c r="J100" s="17" t="n"/>
-      <c r="K100" s="9" t="n"/>
-      <c r="L100" s="9" t="n"/>
-      <c r="M100" s="17" t="n"/>
-      <c r="N100" s="7" t="n"/>
-      <c r="O100" s="7" t="n"/>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>13-02-2019</t>
+        </is>
+      </c>
+      <c r="B100" s="19" t="n"/>
+      <c r="C100" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D100" s="19" t="n"/>
+      <c r="E100" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F100" s="19" t="n"/>
+      <c r="G100" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H100" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Basamak Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I100" s="17" t="inlineStr">
+        <is>
+          <t>33,0x120,0x2,0</t>
+        </is>
+      </c>
+      <c r="J100" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K100" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="L100" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N100" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="O100" s="7" t="n">
+        <v>2080</v>
+      </c>
     </row>
     <row r="101">
-      <c r="B101" s="17" t="n"/>
-      <c r="C101" s="17" t="n"/>
-      <c r="D101" s="17" t="n"/>
-      <c r="E101" s="17" t="n"/>
-      <c r="F101" s="17" t="n"/>
-      <c r="G101" s="17" t="n"/>
-      <c r="H101" s="17" t="n"/>
-      <c r="I101" s="17" t="n"/>
-      <c r="J101" s="17" t="n"/>
-      <c r="K101" s="9" t="n"/>
-      <c r="L101" s="9" t="n"/>
-      <c r="M101" s="17" t="n"/>
-      <c r="N101" s="7" t="n"/>
-      <c r="O101" s="7" t="n"/>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>13-02-2019</t>
+        </is>
+      </c>
+      <c r="B101" s="19" t="n"/>
+      <c r="C101" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D101" s="19" t="n"/>
+      <c r="E101" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F101" s="19" t="n"/>
+      <c r="G101" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H101" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Rıht Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I101" s="17" t="inlineStr">
+        <is>
+          <t>18,0x120,0x2,0</t>
+        </is>
+      </c>
+      <c r="J101" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K101" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="L101" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N101" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O101" s="7" t="n">
+        <v>1040</v>
+      </c>
     </row>
     <row r="102">
-      <c r="B102" s="17" t="n"/>
-      <c r="C102" s="17" t="n"/>
-      <c r="D102" s="17" t="n"/>
-      <c r="E102" s="17" t="n"/>
-      <c r="F102" s="17" t="n"/>
-      <c r="G102" s="17" t="n"/>
-      <c r="H102" s="17" t="n"/>
-      <c r="I102" s="17" t="n"/>
-      <c r="J102" s="17" t="n"/>
-      <c r="K102" s="9" t="n"/>
-      <c r="L102" s="9" t="n"/>
-      <c r="M102" s="17" t="n"/>
-      <c r="N102" s="7" t="n"/>
-      <c r="O102" s="7" t="n"/>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>13-02-2019</t>
+        </is>
+      </c>
+      <c r="B102" s="19" t="n"/>
+      <c r="C102" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D102" s="19" t="n"/>
+      <c r="E102" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F102" s="19" t="n"/>
+      <c r="G102" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H102" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Basamak Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I102" s="17" t="inlineStr">
+        <is>
+          <t>33,0x115,0x2,0</t>
+        </is>
+      </c>
+      <c r="J102" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K102" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L102" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N102" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="O102" s="7" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="103">
-      <c r="B103" s="17" t="n"/>
-      <c r="C103" s="17" t="n"/>
-      <c r="D103" s="17" t="n"/>
-      <c r="E103" s="17" t="n"/>
-      <c r="F103" s="17" t="n"/>
-      <c r="G103" s="17" t="n"/>
-      <c r="H103" s="17" t="n"/>
-      <c r="I103" s="17" t="n"/>
-      <c r="J103" s="17" t="n"/>
-      <c r="K103" s="9" t="n"/>
-      <c r="L103" s="9" t="n"/>
-      <c r="M103" s="17" t="n"/>
-      <c r="N103" s="7" t="n"/>
-      <c r="O103" s="7" t="n"/>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>13-02-2019</t>
+        </is>
+      </c>
+      <c r="B103" s="18" t="n"/>
+      <c r="C103" s="17" t="inlineStr">
+        <is>
+          <t>Francis-Ghana</t>
+        </is>
+      </c>
+      <c r="D103" s="18" t="n"/>
+      <c r="E103" s="17" t="inlineStr">
+        <is>
+          <t>Lincoln Court</t>
+        </is>
+      </c>
+      <c r="F103" s="18" t="n"/>
+      <c r="G103" s="17" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="H103" s="17" t="inlineStr">
+        <is>
+          <t>Traverten Rıht Silver Cilalı Pahlı</t>
+        </is>
+      </c>
+      <c r="I103" s="17" t="inlineStr">
+        <is>
+          <t>20,0x115,0x2,0</t>
+        </is>
+      </c>
+      <c r="J103" s="17" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="K103" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" s="17" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="N103" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O103" s="7" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="104">
       <c r="B104" s="17" t="n"/>
@@ -18784,7 +19225,7 @@
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
-  <mergeCells count="102">
+  <mergeCells count="99">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -18803,90 +19244,87 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B16"/>
-    <mergeCell ref="D16"/>
-    <mergeCell ref="F16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="B23"/>
-    <mergeCell ref="D23"/>
-    <mergeCell ref="F23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="D26:D37"/>
-    <mergeCell ref="F26:F37"/>
-    <mergeCell ref="B38"/>
-    <mergeCell ref="D38"/>
-    <mergeCell ref="F38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="B41"/>
-    <mergeCell ref="D41"/>
-    <mergeCell ref="F41"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="D42"/>
-    <mergeCell ref="F42"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="B21"/>
+    <mergeCell ref="D21"/>
+    <mergeCell ref="F21"/>
+    <mergeCell ref="B22"/>
+    <mergeCell ref="D22"/>
+    <mergeCell ref="F22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B25:B36"/>
+    <mergeCell ref="D25:D36"/>
+    <mergeCell ref="F25:F36"/>
+    <mergeCell ref="B37"/>
+    <mergeCell ref="D37"/>
+    <mergeCell ref="F37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="B65"/>
-    <mergeCell ref="D65"/>
-    <mergeCell ref="F65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="B70"/>
-    <mergeCell ref="D70"/>
-    <mergeCell ref="F70"/>
-    <mergeCell ref="B71"/>
-    <mergeCell ref="D71"/>
-    <mergeCell ref="F71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="B77"/>
-    <mergeCell ref="D77"/>
-    <mergeCell ref="F77"/>
-    <mergeCell ref="B78:B92"/>
-    <mergeCell ref="D78:D92"/>
-    <mergeCell ref="F78:F92"/>
+    <mergeCell ref="B45"/>
+    <mergeCell ref="D45"/>
+    <mergeCell ref="F45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B50"/>
+    <mergeCell ref="D50"/>
+    <mergeCell ref="F50"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="D51:D66"/>
+    <mergeCell ref="F51:F66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="B69:B75"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="F69:F75"/>
+    <mergeCell ref="B76"/>
+    <mergeCell ref="D76"/>
+    <mergeCell ref="F76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="B81"/>
+    <mergeCell ref="D81"/>
+    <mergeCell ref="F81"/>
+    <mergeCell ref="B82"/>
+    <mergeCell ref="D82"/>
+    <mergeCell ref="F82"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="F83:F87"/>
+    <mergeCell ref="B88"/>
+    <mergeCell ref="D88"/>
+    <mergeCell ref="F88"/>
+    <mergeCell ref="B89:B103"/>
+    <mergeCell ref="D89:D103"/>
+    <mergeCell ref="F89:F103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
